--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1094,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Backup e recuperação de desastres</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1151,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Backup e recuperação de desastres</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
+          <t>Implementar para acesso de emergência ou contas de quebra-vidro para evitar o bloqueio de conta em todo o locatário</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,15 +1178,19 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1242,7 +1211,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Implementar para acesso de emergência ou contas de quebra-vidro para evitar o bloqueio de conta em todo o locatário</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1259,19 +1228,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1292,13 +1261,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos a ambientes do Azure</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,19 +1278,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1342,13 +1311,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos a ambientes do Azure</t>
+          <t>Impor a autenticação multifator para qualquer usuário com direitos aos ambientes do Azure</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1359,19 +1328,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1392,13 +1361,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Impor a autenticação multifator para qualquer usuário com direitos aos ambientes do Azure</t>
+          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,19 +1378,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1442,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
+          <t>Impor o Gerenciamento de Identidades Privilegiadas (PIM) do Azure AD para estabelecer acesso permanente zero e privilégio mínimo</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1459,19 +1428,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1492,13 +1461,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Impor o Gerenciamento de Identidades Privilegiadas (PIM) do Azure AD para estabelecer acesso permanente zero e privilégio mínimo</t>
+          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1509,19 +1478,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1542,13 +1511,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
+          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure-AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,19 +1528,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1592,7 +1561,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure-AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
+          <t>Considere usar funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1609,19 +1578,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1642,7 +1611,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Considere usar funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1659,19 +1628,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1692,7 +1661,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
+          <t>Se os Serviços de Domínios do Active Directory (AADDS) do Azure estiverem em uso, implante o AADDS na região primária porque esse serviço só pode ser projetado em uma assinatura</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1709,19 +1678,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1742,7 +1711,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Se os Serviços de Domínios do Active Directory (AADDS) do Azure estiverem em uso, implante o AADDS na região primária porque esse serviço só pode ser projetado em uma assinatura</t>
+          <t>Se o AADDS estiver em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1764,14 +1733,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1792,7 +1761,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Se o AADDS estiver em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
+          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1809,19 +1778,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1842,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
+          <t>Considere usar o Proxy de Aplicativo do Azure AD como uma VPN ou substituição de proxy reverso para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou localmente).</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1859,19 +1828,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1892,7 +1861,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Proxy de Aplicativo do Azure AD como uma VPN ou substituição de proxy reverso para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou localmente).</t>
+          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1909,19 +1878,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1932,17 +1901,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
+          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com no máximo três a quatro níveis, idealmente</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1959,19 +1928,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1992,7 +1961,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com no máximo três a quatro níveis, idealmente</t>
+          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2009,19 +1978,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2042,7 +2011,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
+          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2059,19 +2028,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2092,7 +2061,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
+          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2121,7 +2090,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,7 +2111,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
+          <t>Aplique uma assinatura de conectividade dedicada no grupo de gerenciamento da Plataforma para hospedar um hub de WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2171,7 +2140,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2192,7 +2161,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Aplique uma assinatura de conectividade dedicada no grupo de gerenciamento da Plataforma para hospedar um hub de WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
+          <t>Impor que nenhuma assinatura seja colocada no grupo de gerenciamento raiz</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2209,19 +2178,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2242,7 +2206,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Impor que nenhuma assinatura seja colocada no grupo de gerenciamento raiz</t>
+          <t>Impor que apenas usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2259,14 +2223,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2287,7 +2251,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Impor que apenas usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
+          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2304,7 +2268,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2312,7 +2276,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2333,13 +2297,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
+          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, acessar a revisão, revisar o orçamento, a conformidade com a política e corrigir quando necessário.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2358,7 +2322,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2379,13 +2343,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, acessar a revisão, revisar o orçamento, a conformidade com a política e corrigir quando necessário.</t>
+          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design de carga de trabalho.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2396,7 +2360,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2404,7 +2368,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2425,13 +2389,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design de carga de trabalho.</t>
+          <t>Use instâncias reservadas quando apropriado para otimizar o custo e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada compradas por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2442,15 +2406,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2471,7 +2439,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use instâncias reservadas quando apropriado para otimizar o custo e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada compradas por meio da Política do Azure.</t>
+          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2488,19 +2456,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2521,13 +2489,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
+          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2538,19 +2506,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2571,13 +2539,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
+          <t>Impor um processo para gerenciamento de custos</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2588,19 +2556,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2621,13 +2589,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Impor um processo para gerenciamento de custos</t>
+          <t>Se AD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2638,19 +2606,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2671,7 +2639,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Se AD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
+          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2688,19 +2656,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2711,23 +2679,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2738,19 +2706,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2771,13 +2735,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2788,7 +2752,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2796,7 +2760,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2812,12 +2776,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2834,15 +2798,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2863,7 +2831,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2878,21 +2846,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2913,7 +2873,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura de muitos para tornar os dados não apagáveis e não modificáveis por um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2928,12 +2888,21 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2954,7 +2923,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura de muitos para tornar os dados não apagáveis e não modificáveis por um intervalo especificado pelo usuário.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2983,7 +2952,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3004,7 +2973,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3021,19 +2990,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3054,7 +3023,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3071,19 +3040,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3104,7 +3073,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3121,19 +3090,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3154,7 +3123,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3171,19 +3140,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3204,13 +3173,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3221,19 +3190,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3219,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3236,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3244,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3265,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3282,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3310,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3327,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3335,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3356,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3373,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3401,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3418,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3446,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3463,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3491,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3508,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3536,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3553,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3581,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3598,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3626,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3643,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3671,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3688,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3716,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3733,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3741,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3752,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,7 +3779,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3822,7 +3787,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3943,7 +3908,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Seus gateways de aplicativo devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /26</t>
+          <t>Verifique se você está usando a SKU padrão para seus Balanceadores de Carga do Azure</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3960,19 +3925,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3993,14 +3954,10 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura do aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
-        </is>
-      </c>
+          <t>Seus gateways de aplicativo devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /26</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4014,7 +3971,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
@@ -4026,7 +3983,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,10 +4004,14 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="n"/>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="inlineStr">
+        <is>
+          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura do aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
+        </is>
+      </c>
       <c r="E69" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4069,14 +4030,14 @@
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4058,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4126,7 +4087,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,7 +4108,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4164,7 +4125,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4137,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4158,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,7 +4175,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
@@ -4226,7 +4187,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4208,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4264,19 +4225,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4258,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere usar o Proxy de Aplicativo do Azure AD para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4319,14 +4280,14 @@
       </c>
       <c r="I74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4347,13 +4308,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere usar o Proxy de Aplicativo do Azure AD para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,15 +4325,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4393,7 +4358,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
+          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4410,7 +4375,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4418,7 +4383,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4439,7 +4404,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4456,7 +4421,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4464,7 +4429,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4485,13 +4450,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4502,7 +4467,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4510,7 +4475,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4531,13 +4496,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
+          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4548,7 +4513,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4556,7 +4521,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4577,13 +4542,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4594,7 +4559,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4602,7 +4567,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4623,13 +4588,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
+          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4640,7 +4605,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4648,7 +4613,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4664,18 +4629,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
+          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4686,7 +4651,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4694,7 +4659,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4715,13 +4680,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4732,19 +4697,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4760,18 +4721,18 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
+          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4782,19 +4743,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4815,13 +4776,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4832,15 +4793,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4861,13 +4826,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
+          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4878,7 +4843,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4886,7 +4851,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4924,7 +4889,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4932,7 +4897,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4953,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
+          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4970,7 +4935,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4978,7 +4943,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4999,13 +4964,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
+          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5016,19 +4981,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5049,7 +5010,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5066,19 +5027,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5099,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5116,15 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5145,13 +5110,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5162,7 +5127,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5170,7 +5135,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5186,18 +5151,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5208,19 +5173,15 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5241,14 +5202,10 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
-        </is>
-      </c>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5262,7 +5219,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5274,7 +5231,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5295,10 +5252,14 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="n"/>
+          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="inlineStr">
+        <is>
+          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
+        </is>
+      </c>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5324,7 +5285,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5345,13 +5306,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
+          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5362,15 +5323,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5391,7 +5356,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
+          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5408,7 +5373,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5416,7 +5381,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5437,13 +5402,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5454,19 +5419,15 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5487,7 +5448,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5504,7 +5465,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
@@ -5516,7 +5477,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5537,7 +5498,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5554,7 +5515,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5566,7 +5527,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5587,7 +5548,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5604,19 +5565,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5637,13 +5598,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5654,19 +5615,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5687,13 +5648,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5704,7 +5665,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
@@ -5716,7 +5677,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5737,7 +5698,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5754,7 +5715,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5766,7 +5727,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5787,7 +5748,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5804,7 +5765,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5816,7 +5777,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5837,7 +5798,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5854,7 +5815,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5866,7 +5827,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5887,7 +5848,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade/recuperação de desastres</t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5904,15 +5865,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5933,13 +5898,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
+          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade/recuperação de desastres</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5950,7 +5915,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -5958,7 +5923,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5974,12 +5939,12 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
+          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5996,19 +5961,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6029,13 +5990,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6058,7 +6019,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6079,13 +6040,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6108,7 +6069,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6129,7 +6090,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6146,19 +6107,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6179,13 +6140,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6196,7 +6157,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
@@ -6208,7 +6169,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6229,7 +6190,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6246,19 +6207,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6279,13 +6240,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6296,14 +6257,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6324,13 +6290,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6341,19 +6307,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6369,18 +6330,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6391,14 +6352,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6419,7 +6385,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6436,7 +6402,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6444,7 +6410,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6465,13 +6431,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6482,19 +6448,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6515,13 +6476,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6532,7 +6493,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6544,7 +6505,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6565,13 +6526,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6594,7 +6555,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6615,13 +6576,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6632,19 +6593,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6665,13 +6626,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6682,7 +6643,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
@@ -6694,7 +6655,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6715,13 +6676,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6737,14 +6698,14 @@
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6765,7 +6726,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6782,19 +6743,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6815,7 +6776,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet sem suporte pelas regras de aplicativo.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6832,14 +6793,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6860,7 +6826,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6877,14 +6843,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6905,7 +6871,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
+          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6929,7 +6895,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6950,7 +6916,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6967,14 +6933,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6995,7 +6961,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7012,14 +6978,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7035,12 +7001,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
+          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7057,19 +7023,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7090,13 +7051,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7107,19 +7068,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7140,7 +7101,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
+          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7162,14 +7123,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7190,7 +7151,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7212,14 +7173,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7240,7 +7201,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando pontos de extremidade de serviço de rede virtual, filtre FQDNs de saída em um NVA para evitar a exfiltração de dados.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7269,7 +7230,7 @@
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7285,18 +7246,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
+          <t>Se estiver usando pontos de extremidade de serviço de rede virtual, filtre FQDNs de saída em um NVA para evitar a exfiltração de dados.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7307,14 +7268,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7335,7 +7301,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
+          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7352,14 +7318,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7380,13 +7346,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7397,14 +7363,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7425,7 +7391,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
+          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7442,19 +7408,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7475,7 +7436,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7492,19 +7453,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7525,7 +7486,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7540,7 +7501,11 @@
         </is>
       </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7550,7 +7515,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7571,7 +7536,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7586,11 +7551,7 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H142" s="15" t="n"/>
       <c r="I142" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7600,7 +7561,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7621,7 +7582,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7643,14 +7604,14 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7666,12 +7627,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
+          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7688,19 +7649,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7721,7 +7682,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7738,14 +7699,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7766,13 +7732,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7790,7 +7756,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7811,13 +7777,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
+          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7829,18 +7795,13 @@
       <c r="H147" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7861,7 +7822,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7878,14 +7839,19 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7906,7 +7872,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7923,14 +7889,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7951,7 +7917,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7968,14 +7934,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7996,7 +7962,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
+          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8013,14 +7979,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8041,7 +8007,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
+          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8058,14 +8024,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8086,13 +8052,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
+          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8103,14 +8069,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8121,17 +8087,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8148,14 +8114,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8176,13 +8142,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8193,14 +8159,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8211,7 +8177,7 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
@@ -8221,13 +8187,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8238,14 +8204,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8266,13 +8232,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8283,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8311,13 +8277,13 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8328,14 +8294,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8356,7 +8322,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8373,14 +8339,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8401,7 +8367,7 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8418,14 +8384,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8446,7 +8412,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8463,14 +8429,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8491,7 +8457,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8508,14 +8474,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8536,13 +8502,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8553,14 +8519,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8581,7 +8547,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8598,14 +8564,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8626,7 +8592,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8643,14 +8609,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8671,13 +8637,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8688,14 +8654,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8716,13 +8682,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8733,14 +8699,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8756,18 +8722,18 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8778,14 +8744,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8806,13 +8772,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8823,14 +8789,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8851,7 +8817,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8868,14 +8834,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8896,7 +8862,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que possam ser atribuídas em escopos herdados</t>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8920,7 +8886,7 @@
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8941,7 +8907,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,7 +8931,7 @@
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8986,13 +8952,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9003,14 +8969,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9031,13 +8997,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9048,14 +9014,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9076,14 +9042,10 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D175" s="21" t="inlineStr">
-        <is>
-          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+        </is>
+      </c>
+      <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9097,14 +9059,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9125,10 +9087,14 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
-        </is>
-      </c>
-      <c r="D176" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D176" s="21" t="inlineStr">
+        <is>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E176" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9142,14 +9108,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9170,7 +9136,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9187,14 +9153,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9215,7 +9181,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9232,14 +9198,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9260,14 +9226,10 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9281,14 +9243,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9304,18 +9266,22 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9326,14 +9292,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9354,13 +9320,13 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9371,14 +9337,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9399,7 +9365,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9416,14 +9382,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9444,7 +9410,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9468,7 +9434,7 @@
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9489,7 +9455,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9513,7 +9479,7 @@
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9534,7 +9500,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9558,7 +9524,7 @@
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9579,7 +9545,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9603,7 +9569,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9624,7 +9590,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9641,14 +9607,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9669,7 +9635,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9686,14 +9652,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9714,7 +9680,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9731,14 +9697,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9759,7 +9725,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9776,14 +9742,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9804,7 +9770,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9828,7 +9794,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9844,12 +9810,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9866,14 +9832,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9894,7 +9860,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9911,14 +9877,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9939,7 +9905,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9956,14 +9922,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9984,7 +9950,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10008,7 +9974,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10029,7 +9995,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10046,14 +10012,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10074,7 +10040,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10091,14 +10057,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10119,7 +10085,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10136,14 +10102,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10164,7 +10130,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10181,14 +10147,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10209,7 +10175,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10233,7 +10199,7 @@
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10244,23 +10210,23 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10271,14 +10237,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10294,12 +10260,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10316,14 +10282,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10344,7 +10310,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10361,14 +10327,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10377,15 +10343,45 @@
       <c r="P203" s="25" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
-      <c r="A204" s="21" t="n"/>
-      <c r="B204" s="21" t="n"/>
-      <c r="C204" s="21" t="n"/>
+      <c r="A204" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+        </is>
+      </c>
+      <c r="B204" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C204" s="21" t="inlineStr">
+        <is>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+        </is>
+      </c>
       <c r="D204" s="21" t="n"/>
-      <c r="E204" s="21" t="n"/>
+      <c r="E204" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G204" s="21" t="n"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
-      <c r="L204" s="25" t="n"/>
+      <c r="L204" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M204" s="25" t="n"/>
       <c r="N204" s="25" t="n"/>
       <c r="O204" s="25" t="n"/>
@@ -11808,20 +11804,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -11833,123 +11927,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F204" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -8222,17 +8222,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t xml:space="preserve">Resiliência </t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8249,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8267,23 +8267,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t xml:space="preserve">Resiliência </t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8294,14 +8294,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8312,23 +8312,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t xml:space="preserve">Resiliência </t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8339,14 +8339,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8357,23 +8357,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t xml:space="preserve">Resiliência </t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para aumentar e diminuir a escala com base na carga.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8384,14 +8384,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8429,14 +8429,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8457,13 +8457,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8474,14 +8474,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8519,14 +8519,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,13 +8547,13 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8564,14 +8564,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8592,13 +8592,13 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8609,14 +8609,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,13 +8637,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8654,14 +8654,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8682,13 +8682,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8699,14 +8699,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8744,14 +8744,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8767,18 +8767,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8789,14 +8789,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8812,12 +8812,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8834,14 +8834,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8857,18 +8857,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8879,14 +8879,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8902,12 +8902,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que possam ser atribuídas em escopos herdados</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8924,14 +8924,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8952,13 +8952,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8976,7 +8976,7 @@
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8997,13 +8997,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9014,14 +9014,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9066,7 +9066,7 @@
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9087,14 +9087,10 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D176" s="21" t="inlineStr">
-        <is>
-          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que possam ser atribuídas em escopos herdados</t>
+        </is>
+      </c>
+      <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9108,14 +9104,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9136,7 +9132,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9160,7 +9156,7 @@
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9181,13 +9177,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9198,14 +9194,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9226,7 +9222,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9243,14 +9239,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9271,12 +9267,12 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
         </is>
       </c>
       <c r="D180" s="21" t="inlineStr">
         <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
         </is>
       </c>
       <c r="E180" s="21" t="inlineStr">
@@ -9292,14 +9288,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9315,18 +9311,18 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9337,14 +9333,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9360,12 +9356,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9382,14 +9378,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9405,12 +9401,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9427,14 +9423,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9450,15 +9446,19 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9472,14 +9472,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9500,13 +9500,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9517,14 +9517,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9562,14 +9562,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9614,7 +9614,7 @@
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9652,14 +9652,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9704,7 +9704,7 @@
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9742,14 +9742,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9794,7 +9794,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9832,14 +9832,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9855,12 +9855,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9877,14 +9877,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9900,12 +9900,12 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9922,14 +9922,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9945,12 +9945,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9967,14 +9967,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9990,12 +9990,12 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10012,14 +10012,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10057,14 +10057,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10102,14 +10102,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10147,14 +10147,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10192,14 +10192,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10237,14 +10237,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10255,23 +10255,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10282,14 +10282,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10300,7 +10300,7 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
@@ -10310,13 +10310,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10327,14 +10327,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10345,7 +10345,7 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
@@ -10355,13 +10355,13 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10372,14 +10372,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10388,60 +10388,180 @@
       <c r="P204" s="25" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1">
-      <c r="A205" s="21" t="n"/>
-      <c r="B205" s="21" t="n"/>
-      <c r="C205" s="21" t="n"/>
+      <c r="A205" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B205" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C205" s="21" t="inlineStr">
+        <is>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+        </is>
+      </c>
       <c r="D205" s="21" t="n"/>
-      <c r="E205" s="21" t="n"/>
+      <c r="E205" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G205" s="21" t="n"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
-      <c r="L205" s="25" t="n"/>
+      <c r="L205" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M205" s="25" t="n"/>
       <c r="N205" s="25" t="n"/>
       <c r="O205" s="25" t="n"/>
       <c r="P205" s="25" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1">
-      <c r="A206" s="21" t="n"/>
-      <c r="B206" s="21" t="n"/>
-      <c r="C206" s="21" t="n"/>
+      <c r="A206" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+        </is>
+      </c>
+      <c r="B206" s="21" t="inlineStr">
+        <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C206" s="21" t="inlineStr">
+        <is>
+          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
+        </is>
+      </c>
       <c r="D206" s="21" t="n"/>
-      <c r="E206" s="21" t="n"/>
+      <c r="E206" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G206" s="21" t="n"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
-      <c r="L206" s="25" t="n"/>
+      <c r="L206" s="25" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M206" s="25" t="n"/>
       <c r="N206" s="25" t="n"/>
       <c r="O206" s="25" t="n"/>
       <c r="P206" s="25" t="n"/>
     </row>
     <row r="207">
-      <c r="A207" s="21" t="n"/>
-      <c r="B207" s="21" t="n"/>
-      <c r="C207" s="21" t="n"/>
+      <c r="A207" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+        </is>
+      </c>
+      <c r="B207" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C207" s="21" t="inlineStr">
+        <is>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+        </is>
+      </c>
       <c r="D207" s="21" t="n"/>
-      <c r="E207" s="21" t="n"/>
+      <c r="E207" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G207" s="21" t="n"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
-      <c r="L207" s="25" t="n"/>
+      <c r="L207" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M207" s="25" t="n"/>
       <c r="N207" s="25" t="n"/>
       <c r="O207" s="25" t="n"/>
       <c r="P207" s="25" t="n"/>
     </row>
     <row r="208">
-      <c r="A208" s="21" t="n"/>
-      <c r="B208" s="21" t="n"/>
-      <c r="C208" s="21" t="n"/>
+      <c r="A208" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+        </is>
+      </c>
+      <c r="B208" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C208" s="21" t="inlineStr">
+        <is>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+        </is>
+      </c>
       <c r="D208" s="21" t="n"/>
-      <c r="E208" s="21" t="n"/>
+      <c r="E208" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G208" s="21" t="n"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
-      <c r="L208" s="25" t="n"/>
+      <c r="L208" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M208" s="25" t="n"/>
       <c r="N208" s="25" t="n"/>
       <c r="O208" s="25" t="n"/>
@@ -11928,7 +12048,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11943,7 +12063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -12151,6 +12271,13 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
+          <t>Resiliência</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Backup e recuperação de desastres</t>
         </is>
       </c>

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -3626,7 +3626,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
+          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5156,13 +5156,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t>Considere o limite de rotas por tabela de rotas (400).</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5173,7 +5173,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5181,7 +5181,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5197,18 +5197,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5219,19 +5219,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5252,14 +5248,10 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="inlineStr">
-        <is>
-          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
-        </is>
-      </c>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5273,7 +5265,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5285,7 +5277,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5306,10 +5298,14 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="n"/>
+          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5335,7 +5331,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5356,13 +5352,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
+          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5373,15 +5369,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
+          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5419,7 +5419,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5427,7 +5427,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5448,13 +5448,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5465,19 +5465,15 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5498,7 +5494,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5515,7 +5511,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5527,7 +5523,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5548,7 +5544,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5565,7 +5561,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5577,7 +5573,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5598,7 +5594,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5615,19 +5611,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5648,13 +5644,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5665,19 +5661,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5698,13 +5694,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5715,7 +5711,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5727,7 +5723,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5748,7 +5744,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5765,7 +5761,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5777,7 +5773,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5798,7 +5794,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5815,7 +5811,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5827,7 +5823,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5848,7 +5844,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5865,7 +5861,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
@@ -5877,7 +5873,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5898,7 +5894,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade/recuperação de desastres</t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5915,15 +5911,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5944,13 +5944,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
+          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade/recuperação de desastres</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5961,7 +5961,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5969,7 +5969,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5985,12 +5985,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
+          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6007,19 +6007,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6040,13 +6036,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6069,7 +6065,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6090,13 +6086,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6119,7 +6115,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6140,7 +6136,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6157,19 +6153,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6190,13 +6186,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6207,7 +6203,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
@@ -6219,7 +6215,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6240,7 +6236,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6257,19 +6253,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6290,13 +6286,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6307,14 +6303,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6335,13 +6336,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6352,19 +6353,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6380,18 +6376,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6402,15 +6398,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6448,14 +6448,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6476,13 +6476,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6493,19 +6493,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6526,13 +6522,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6543,7 +6539,7 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
@@ -6555,7 +6551,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6576,13 +6572,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6605,7 +6601,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6626,13 +6622,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6643,19 +6639,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6676,13 +6672,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6693,7 +6689,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
@@ -6705,7 +6701,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6726,13 +6722,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6748,14 +6744,14 @@
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6776,7 +6772,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6793,19 +6789,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6826,7 +6822,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet sem suporte pelas regras de aplicativo.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6843,14 +6839,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6871,7 +6872,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6888,14 +6889,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6916,7 +6917,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
+          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6940,7 +6941,7 @@
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6961,7 +6962,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6978,14 +6979,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7006,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7023,14 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7046,12 +7047,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
+          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7068,19 +7069,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7101,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7118,19 +7114,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7151,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
+          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7173,14 +7169,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7201,7 +7197,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7223,14 +7219,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7251,7 +7247,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando pontos de extremidade de serviço de rede virtual, filtre FQDNs de saída em um NVA para evitar a exfiltração de dados.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7280,7 +7276,7 @@
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7296,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
+          <t>Se estiver usando pontos de extremidade de serviço de rede virtual, filtre FQDNs de saída em um NVA para evitar a exfiltração de dados.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7318,14 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7346,7 +7347,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
+          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7363,14 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7391,13 +7392,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7408,14 +7409,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7436,7 +7437,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
+          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7453,19 +7454,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7486,7 +7482,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7503,19 +7499,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7536,7 +7532,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7551,7 +7547,11 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7561,7 +7561,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7597,11 +7597,7 @@
         </is>
       </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H143" s="15" t="n"/>
       <c r="I143" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7611,7 +7607,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7632,7 +7628,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7654,14 +7650,14 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7677,12 +7673,12 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
+          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7699,19 +7695,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7732,7 +7728,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7749,14 +7745,19 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7777,13 +7778,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7801,7 +7802,7 @@
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7822,13 +7823,13 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
+          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7840,18 +7841,13 @@
       <c r="H148" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7872,7 +7868,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7889,14 +7885,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7917,7 +7918,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7934,14 +7935,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7962,7 +7963,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7979,14 +7980,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8007,7 +8008,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
+          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8024,14 +8025,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8052,7 +8053,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
+          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8069,14 +8070,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8097,13 +8098,13 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
+          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8114,14 +8115,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8132,17 +8133,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8159,14 +8160,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8187,13 +8188,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8204,14 +8205,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8222,23 +8223,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Resiliência </t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8249,14 +8250,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8277,7 +8278,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
+          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8294,14 +8295,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8322,13 +8323,13 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
+          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8339,14 +8340,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8362,12 +8363,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para aumentar e diminuir a escala com base na carga.</t>
+          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8384,14 +8385,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8402,23 +8403,23 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t xml:space="preserve">Resiliência </t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para aumentar e diminuir a escala com base na carga.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8429,14 +8430,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8457,13 +8458,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8474,14 +8475,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8502,13 +8503,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8519,14 +8520,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,7 +8548,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8564,14 +8565,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8592,7 +8593,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8609,14 +8610,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,7 +8638,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8654,14 +8655,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8682,7 +8683,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8699,14 +8700,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8727,13 +8728,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8744,14 +8745,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8772,7 +8773,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8789,14 +8790,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8817,7 +8818,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8834,14 +8835,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8862,13 +8863,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8879,14 +8880,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8907,13 +8908,13 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8924,14 +8925,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8947,18 +8948,18 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8969,14 +8970,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8997,13 +8998,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9014,14 +9015,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9042,7 +9043,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9059,14 +9060,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9087,7 +9088,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que possam ser atribuídas em escopos herdados</t>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9111,7 +9112,7 @@
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9132,7 +9133,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9156,7 +9157,7 @@
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9177,13 +9178,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9194,14 +9195,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9222,13 +9223,13 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9239,14 +9240,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9267,14 +9268,10 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9288,14 +9285,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9316,10 +9313,14 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9333,14 +9334,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9361,7 +9362,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9378,14 +9379,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9406,7 +9407,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9423,14 +9424,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9451,14 +9452,10 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9472,14 +9469,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9495,18 +9492,22 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
-        </is>
-      </c>
-      <c r="D185" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D185" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9517,14 +9518,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9545,13 +9546,13 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9562,14 +9563,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9590,7 +9591,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9607,14 +9608,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9635,7 +9636,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9659,7 +9660,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9680,7 +9681,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9704,7 +9705,7 @@
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9725,7 +9726,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9749,7 +9750,7 @@
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9770,7 +9771,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9794,7 +9795,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9815,7 +9816,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9832,14 +9833,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9860,7 +9861,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9877,14 +9878,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9905,7 +9906,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9922,14 +9923,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9950,7 +9951,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9967,14 +9968,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9995,7 +9996,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10019,7 +10020,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10035,12 +10036,12 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10057,14 +10058,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10085,7 +10086,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10102,14 +10103,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10130,7 +10131,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10147,14 +10148,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10175,7 +10176,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10199,7 +10200,7 @@
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10220,7 +10221,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10237,14 +10238,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10265,7 +10266,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10282,14 +10283,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10310,7 +10311,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10327,14 +10328,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10355,7 +10356,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10372,14 +10373,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10400,7 +10401,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10424,7 +10425,7 @@
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10435,23 +10436,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10462,14 +10463,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10485,12 +10486,12 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10507,14 +10508,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10535,7 +10536,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10552,14 +10553,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10568,15 +10569,45 @@
       <c r="P208" s="25" t="n"/>
     </row>
     <row r="209">
-      <c r="A209" s="21" t="n"/>
-      <c r="B209" s="21" t="n"/>
-      <c r="C209" s="21" t="n"/>
+      <c r="A209" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+        </is>
+      </c>
+      <c r="B209" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C209" s="21" t="inlineStr">
+        <is>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+        </is>
+      </c>
       <c r="D209" s="21" t="n"/>
-      <c r="E209" s="21" t="n"/>
+      <c r="E209" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G209" s="21" t="n"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
-      <c r="L209" s="25" t="n"/>
+      <c r="L209" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M209" s="25" t="n"/>
       <c r="N209" s="25" t="n"/>
       <c r="O209" s="25" t="n"/>
@@ -12048,7 +12079,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F210" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Quantos locatários do Azure AD você gerencia?</t>
+          <t>Use um locatário do Entra para gerenciar seus recursos do Azure, a menos que você tenha um requisito regulamentar ou comercial claro para multilocatários.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/multitenant/considerations/tenancy-models</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/considerations-recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1316,7 +1316,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1362,7 +1362,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1408,7 +1408,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1500,7 +1500,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1546,7 +1546,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1638,7 +1638,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/manage/mca-section-invoice</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1730,7 +1730,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1776,7 +1776,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -2235,7 +2235,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2281,7 +2281,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2327,12 +2327,12 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
@@ -2473,10 +2473,10 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
@@ -3219,12 +3219,12 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
@@ -3269,12 +3269,12 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
@@ -3319,10 +3319,9 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
@@ -3636,7 +3635,7 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7570,7 +7569,7 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
@@ -9821,7 +9820,7 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
@@ -9866,7 +9865,7 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
@@ -9911,7 +9910,7 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
@@ -9956,7 +9955,7 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
@@ -10001,7 +10000,7 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
@@ -10046,7 +10045,7 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
@@ -10091,7 +10090,7 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
@@ -10136,7 +10135,7 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
@@ -10181,7 +10180,7 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
@@ -10226,7 +10225,7 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
@@ -10271,7 +10270,7 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
@@ -10316,7 +10315,7 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
@@ -11884,13 +11883,13 @@
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11901,7 +11900,7 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
@@ -11929,13 +11928,13 @@
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
       <c r="E238" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -11946,14 +11945,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11974,13 +11973,13 @@
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11991,14 +11990,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12014,12 +12013,12 @@
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12036,14 +12035,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12059,18 +12058,18 @@
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12081,14 +12080,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12104,18 +12103,18 @@
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>Acesso privilegiado seguro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>Separe contas de administrador privadas para tarefas administrativas do Azure.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12126,15 +12125,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12150,18 +12148,18 @@
       </c>
       <c r="B243" s="21" t="inlineStr">
         <is>
-          <t>Estrutura de habilitação de serviço</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
       <c r="E243" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12172,14 +12170,14 @@
       <c r="G243" s="21" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
       <c r="L243" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M243" s="25" t="n"/>
@@ -12195,18 +12193,18 @@
       </c>
       <c r="B244" s="21" t="inlineStr">
         <is>
-          <t>Estrutura de habilitação de serviço</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
       <c r="E244" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12217,14 +12215,14 @@
       <c r="G244" s="21" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
       <c r="L244" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M244" s="25" t="n"/>
@@ -12233,45 +12231,135 @@
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="n"/>
-      <c r="B245" s="21" t="n"/>
-      <c r="C245" s="21" t="n"/>
+      <c r="A245" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B245" s="21" t="inlineStr">
+        <is>
+          <t>Acesso privilegiado seguro</t>
+        </is>
+      </c>
+      <c r="C245" s="21" t="inlineStr">
+        <is>
+          <t>Separe contas de administrador privadas para tarefas administrativas do Azure.</t>
+        </is>
+      </c>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="n"/>
+      <c r="E245" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G245" s="21" t="n"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+        </is>
+      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="n"/>
+      <c r="L245" s="25" t="inlineStr">
+        <is>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+        </is>
+      </c>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="n"/>
-      <c r="B246" s="21" t="n"/>
-      <c r="C246" s="21" t="n"/>
+      <c r="A246" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
+          <t>Estrutura de habilitação de serviço</t>
+        </is>
+      </c>
+      <c r="C246" s="21" t="inlineStr">
+        <is>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
+        </is>
+      </c>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="n"/>
+      <c r="E246" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G246" s="21" t="n"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="n"/>
+      <c r="L246" s="25" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="n"/>
-      <c r="B247" s="21" t="n"/>
-      <c r="C247" s="21" t="n"/>
+      <c r="A247" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B247" s="21" t="inlineStr">
+        <is>
+          <t>Estrutura de habilitação de serviço</t>
+        </is>
+      </c>
+      <c r="C247" s="21" t="inlineStr">
+        <is>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+        </is>
+      </c>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="n"/>
+      <c r="E247" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G247" s="21" t="n"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="n"/>
+      <c r="L247" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
@@ -13173,7 +13261,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F245" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F248" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet sem suporte pelas regras de aplicativo.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando pontos de extremidade de serviço de rede virtual, filtre FQDNs de saída em um NVA para evitar a exfiltração de dados.</t>
+          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -1059,12 +1059,12 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Locatários do Azure AD</t>
+          <t>Locatários do Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1105,17 +1105,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Locatários do Azure AD</t>
+          <t>Locatários do Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você tem uma abordagem de Automação Multilocatário para gerenciar seus Locatários do Azure AD</t>
+          <t>Verifique se você tem uma abordagem de automação multilocatário para gerenciar seus locatários do Microsoft Entra ID</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1151,12 +1151,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Locatários do Azure AD</t>
+          <t>Locatários do Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1243,7 +1243,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1335,7 +1335,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1381,7 +1381,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Usar departamentos e contas para mapear a estrutura da sua organização para a hierarquia de inscrição pode ajudar na separação do faturamento.</t>
+          <t>Use departamentos e contas para mapear a estrutura da sua organização para a hierarquia de registros, o que pode ajudar na separação do faturamento.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1427,7 +1427,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Verifique se as Contas estão configuradas para serem do tipo 'Conta corporativa e de estudante'</t>
+          <t>Certifique-se de que as Contas estão configuradas para serem do tipo 'Conta Corporativa ou de Estudante</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1473,7 +1473,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Habilite os Encargos de Exibição de DA e os Encargos de Exibição de AO em suas Inscrições EA para permitir que os usuários com os dados de Custo e Faturamento de revisão de perms corretos.</t>
+          <t>Habilite os Encargos de Exibição de DA e os Encargos de Exibição de AO em suas Inscrições EA para permitir que os usuários com os permanentes corretos revisem os Dados de Custo e Faturamento.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1519,7 +1519,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1611,12 +1611,12 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Contrato de Nuvem da Microsoft</t>
+          <t>Contrato de Cliente Microsoft</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1657,12 +1657,12 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Contrato de Nuvem da Microsoft</t>
+          <t>Contrato de Cliente Microsoft</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
@@ -1703,12 +1703,12 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Contrato de Nuvem da Microsoft</t>
+          <t>Contrato de Cliente Microsoft</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
@@ -1749,12 +1749,12 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Contrato de Nuvem da Microsoft</t>
+          <t>Contrato de Cliente Microsoft</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1795,17 +1795,17 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>ID do Microsoft Entra e Identidade Híbrida</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
+          <t>Usar identidades gerenciadas em vez de entidades de serviço para autenticação nos serviços do Azure</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1822,15 +1822,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1841,17 +1845,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso.</t>
+          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade/recuperação de desastres</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1868,7 +1872,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1876,7 +1880,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1887,23 +1891,23 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+          <t>Implementar um acesso de emergência ou contas de quebra-vidro para evitar o bloqueio de contas em todo o locatário</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1914,15 +1918,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I26" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,17 +1941,17 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que possam ser atribuídas em escopos herdados</t>
+          <t>Integre os logs de ID do Microsoft Entra com o Azure Monitor central da plataforma. O Azure Monitor permite uma única fonte de verdade sobre dados de log e monitoramento no Azure, oferecendo às organizações opções nativas de nuvem para atender aos requisitos de coleta e retenção de logs.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1960,14 +1968,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1978,23 +1986,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
+          <t>Aplique um modelo RBAC que se alinhe ao seu modelo operacional de nuvem. Escopo e atribuição entre grupos de gerenciamento e assinaturas.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2005,14 +2013,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2023,17 +2036,17 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+          <t>Impor políticas de acesso condicional do Microsoft Entra ID para qualquer usuário com direitos a ambientes do Azure</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2050,14 +2063,19 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2068,23 +2086,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Impor a autenticação multifator para qualquer usuário com direitos aos ambientes do Azure</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2095,14 +2113,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2113,24 +2136,20 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2144,14 +2163,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2162,17 +2186,17 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Impor o Microsoft Entra ID Privileged Identity Management (PIM) para estabelecer acesso permanente zero e privilégio mínimo</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2189,15 +2213,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2208,23 +2236,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2235,15 +2263,19 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2254,17 +2286,17 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
+          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure-AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2281,15 +2313,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2305,18 +2341,18 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Active Directory e identidade híbrida</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Usar identidades gerenciadas em vez de entidades de serviço para autenticação nos serviços do Azure</t>
+          <t>Considere usar funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2327,19 +2363,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2355,12 +2391,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Azure AD</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade/recuperação de desastres</t>
+          <t>Se os Serviços de Domínios do Active Directory (AADDS) do Azure estiverem em uso, implante o AADDS na região primária porque esse serviço só pode ser projetado em uma assinatura</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2377,15 +2413,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I36" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+        </is>
+      </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2406,13 +2446,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Implementar um acesso de emergência ou contas de quebra-vidro para evitar o bloqueio de contas em todo o locatário</t>
+          <t>Se o AADDS estiver em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2423,19 +2463,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2456,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Integre os logs do Azure AD com o Azure Monitor central de plataforma. O Azure Monitor permite uma única fonte de verdade sobre dados de log e monitoramento no Azure, oferecendo às organizações opções nativas de nuvem para atender aos requisitos de coleta e retenção de logs.</t>
+          <t>Se o AD no servidor Windows estiver em uso, os recursos no Azure estão usando o controlador de domínio correto?</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2473,15 +2513,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2502,13 +2546,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Aplique um modelo RBAC que se alinhe ao seu modelo operacional de nuvem. Escopo e atribuição entre grupos de gerenciamento e assinaturas.</t>
+          <t>Considere usar o Microsoft Entra ID Application Proxy como uma VPN ou substituição de proxy reverso para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2519,19 +2563,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2552,13 +2596,13 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos a ambientes do Azure</t>
+          <t>Evite usar contas sincronizadas locais para atribuições de função de ID do Microsoft Entra.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2569,19 +2613,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2597,18 +2641,18 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Zonas de desembarque</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Impor a autenticação multifator para qualquer usuário com direitos aos ambientes do Azure</t>
+          <t>Configure a segmentação de rede de identidade (ADDS) por meio do uso de uma rede virtual e faça peer back para o hub. Fornecendo autenticação dentro da zona de aterrissagem do aplicativo (legado).</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2619,19 +2663,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2647,12 +2691,12 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Zonas de desembarque</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
+          <t xml:space="preserve">Use o RBAC do Azure para gerenciar o acesso do plano de dados aos recursos, se possível. E.G - Operações de dados no Cofre de Chaves, Conta de Armazenamento e Serviços de Banco de Dados. </t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2669,19 +2713,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2697,12 +2741,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Zonas de desembarque</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Impor o Gerenciamento de Identidades Privilegiadas (PIM) do Azure AD para estabelecer acesso permanente zero e privilégio mínimo</t>
+          <t>Use as revisões de acesso do PIM do Microsoft Entra ID para validar periodicamente os direitos de recurso.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2719,19 +2763,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2742,17 +2782,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Nomeação e marcação</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
+          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2769,19 +2809,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2792,17 +2828,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure-AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
+          <t>Impor hierarquia de grupo de gerenciamento razoavelmente simples com no máximo quatro níveis.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2819,19 +2855,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2842,17 +2878,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Considere usar funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
+          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2869,19 +2905,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2892,17 +2928,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
+          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2919,19 +2955,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2942,17 +2978,17 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Se os Serviços de Domínios do Active Directory (AADDS) do Azure estiverem em uso, implante o AADDS na região primária porque esse serviço só pode ser projetado em uma assinatura</t>
+          <t>Aplique uma assinatura de conectividade dedicada no grupo de gerenciamento de Conectividade para hospedar um hub de WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2969,19 +3005,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2992,17 +3028,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Se o AADDS estiver em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
+          <t>Impor que nenhuma assinatura seja colocada no grupo de gerenciamento raiz</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3019,19 +3055,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3042,17 +3073,17 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
+          <t>Impor que apenas usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3069,19 +3100,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3092,17 +3119,17 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Proxy de Aplicativo do Azure AD como uma VPN ou substituição de proxy reverso para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou localmente).</t>
+          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3119,19 +3146,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3142,23 +3165,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
+          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, acessar a revisão, revisar o orçamento, a conformidade com a política e corrigir quando necessário.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3169,19 +3192,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3192,23 +3211,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Zonas de desembarque</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Configure a segmentação de rede de identidade (ADDS) por meio do uso de uma rede virtual e faça peer back para o hub. Fornecendo autenticação dentro da zona de aterrissagem do aplicativo (legado).</t>
+          <t>Certifique-se de que todos os proprietários de assinaturas e a equipe principal de TI estejam cientes das cotas de assinatura e do impacto que elas têm nos recursos de provisionamento para uma determinada assinatura.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3219,19 +3238,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3242,23 +3256,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Zonas de desembarque</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o RBAC do Azure para gerenciar o acesso do plano de dados aos recursos, se possível. E.G - Operações de dados em Keyvault, Conta de armazenamento e serviços de banco de dados. </t>
+          <t>Use instâncias reservadas quando apropriado para otimizar o custo e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada compradas por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3269,19 +3283,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3292,23 +3306,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Zonas de desembarque</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use as revisões de acesso do Azure AD PIM para validar periodicamente os direitos de recurso.</t>
+          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3319,14 +3333,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3337,23 +3356,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3364,14 +3383,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3382,23 +3406,23 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
+          <t>Impor um processo para gerenciamento de custos</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3409,14 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3427,17 +3456,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
+          <t>Se AD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento Indentity, para hospedar controladores de domínio do Active Directory do Windows Server</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3454,14 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3472,17 +3506,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
+          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3499,14 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3517,17 +3556,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3544,19 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3567,17 +3601,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Execute a entrega de aplicativos dentro das zonas de aterrissagem para aplicativos internos (corp) e externos (online).</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3592,12 +3626,21 @@
         </is>
       </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="n"/>
+      <c r="H61" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3608,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
+          <t>Verifique se você está usando o SKU do Application Gateway v2</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3635,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3658,17 +3701,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Verifique se você está usando a SKU padrão para seus Balanceadores de Carga do Azure</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3685,19 +3728,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3708,17 +3747,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t>Seus gateways de aplicativo devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /26</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3735,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3758,20 +3797,24 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="n"/>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="inlineStr">
+        <is>
+          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura do aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
+        </is>
+      </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3785,19 +3828,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3808,17 +3851,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3835,19 +3878,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3858,17 +3901,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3885,19 +3928,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3908,23 +3951,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3935,15 +3978,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3954,23 +4001,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3981,15 +4028,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4000,23 +4051,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4027,15 +4078,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4046,17 +4101,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4073,15 +4128,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4092,23 +4151,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4119,7 +4178,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4127,7 +4186,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4138,23 +4197,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
+          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4165,7 +4224,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4173,7 +4232,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4184,23 +4243,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4211,7 +4270,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4219,7 +4278,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4230,23 +4289,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4257,7 +4316,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4265,7 +4324,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4276,17 +4335,17 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4303,7 +4362,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4311,7 +4370,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4322,23 +4381,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
+          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4349,7 +4408,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4357,7 +4416,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4368,23 +4427,23 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Compatibilidade operacional</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4395,7 +4454,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4403,7 +4462,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4414,27 +4473,23 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Compatibilidade operacional</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4445,7 +4500,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4453,7 +4508,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4464,17 +4519,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4491,7 +4546,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4499,7 +4554,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4510,17 +4565,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4537,7 +4592,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4545,7 +4600,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4556,23 +4611,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
+          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4583,15 +4638,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4602,23 +4661,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4629,15 +4688,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4648,17 +4711,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
+          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também servidores DNS.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4675,7 +4738,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4683,7 +4746,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4694,17 +4757,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4721,7 +4784,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4729,7 +4792,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4740,23 +4803,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para aumentar e diminuir a escala com base na carga.</t>
+          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4767,7 +4830,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4775,7 +4838,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4791,18 +4854,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4813,7 +4876,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4821,7 +4884,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4837,12 +4900,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Execute a entrega de aplicativos dentro das zonas de aterrissagem para aplicativos internos (corp) e externos (online).</t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4859,19 +4922,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4887,12 +4950,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando o SKU do Application Gateway v2</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4909,19 +4972,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4937,12 +5000,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU padrão para seus Balanceadores de Carga do Azure</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4959,7 +5022,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -4967,7 +5030,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4983,12 +5046,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Seus gateways de aplicativo devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /26</t>
+          <t>Considere o limite de rotas por tabela de rotas (400).</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5005,19 +5068,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5033,22 +5092,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura do aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
-        </is>
-      </c>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5059,19 +5114,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5087,12 +5138,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5109,19 +5160,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5137,15 +5188,19 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="n"/>
+          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
+        </is>
+      </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5159,19 +5214,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5187,12 +5242,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
+          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5209,19 +5264,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5237,12 +5292,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5259,19 +5314,15 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5287,18 +5338,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
+          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5309,19 +5360,15 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5337,12 +5384,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere usar o Proxy de Aplicativo do Azure AD para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5359,19 +5406,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5387,18 +5434,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5409,15 +5456,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5433,18 +5484,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
+          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5455,15 +5506,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5479,18 +5534,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5501,15 +5556,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5525,18 +5584,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5547,15 +5606,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5571,12 +5634,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5593,15 +5656,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5617,18 +5684,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5639,15 +5706,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5663,18 +5734,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5685,15 +5756,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5709,18 +5784,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5731,15 +5806,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5755,18 +5834,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
+          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5777,7 +5856,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5785,7 +5864,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5801,18 +5880,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5823,15 +5902,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5847,12 +5930,12 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5869,19 +5952,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5897,18 +5980,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5919,7 +6002,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
@@ -5931,7 +6014,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5947,12 +6030,12 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5969,14 +6052,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5992,12 +6080,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6014,15 +6102,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6038,18 +6130,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6060,15 +6152,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6084,12 +6180,12 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6106,7 +6202,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6114,7 +6210,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6130,18 +6226,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6152,19 +6248,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6180,12 +6276,12 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6202,19 +6298,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6230,12 +6321,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6252,14 +6343,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6275,18 +6366,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Considere o limite de rotas por tabela de rotas (400).</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6297,15 +6388,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6321,18 +6416,18 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6343,14 +6438,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6366,18 +6466,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6388,19 +6488,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6416,19 +6516,15 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
-        </is>
-      </c>
-      <c r="D121" s="21" t="inlineStr">
-        <is>
-          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
-        </is>
-      </c>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+        </is>
+      </c>
+      <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -6442,19 +6538,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6470,18 +6566,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6492,19 +6588,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6520,12 +6616,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6542,15 +6638,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6566,12 +6666,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6588,15 +6688,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6612,18 +6716,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6634,19 +6738,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6662,18 +6762,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6684,19 +6784,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6712,18 +6807,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6734,19 +6829,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6762,18 +6852,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6784,19 +6874,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6812,12 +6897,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
+          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6834,19 +6919,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6862,18 +6942,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6884,19 +6964,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6912,12 +6992,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
+          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -6934,19 +7014,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -6962,12 +7042,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -6984,7 +7064,7 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6996,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7012,12 +7092,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7034,19 +7114,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7062,18 +7142,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
+          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7084,14 +7164,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7107,12 +7192,12 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
+          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7129,19 +7214,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7157,18 +7237,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7179,19 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7207,18 +7282,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7229,19 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7257,18 +7327,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7279,19 +7349,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7307,12 +7377,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7329,19 +7399,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7357,12 +7427,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7377,21 +7447,17 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
+      <c r="H140" s="15" t="n"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7407,18 +7473,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7429,14 +7495,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7452,18 +7523,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7474,19 +7545,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7502,12 +7573,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7524,14 +7595,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7547,12 +7623,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
+          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7569,14 +7645,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7592,18 +7668,18 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7614,19 +7690,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7642,12 +7713,12 @@
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7664,7 +7735,7 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7676,7 +7747,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7692,18 +7763,18 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7714,19 +7785,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7742,12 +7808,12 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7764,19 +7830,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7792,18 +7853,18 @@
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7814,19 +7875,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7842,18 +7898,18 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7864,19 +7920,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7892,18 +7943,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7914,19 +7965,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7942,12 +7988,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
+          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7964,14 +8010,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -7987,12 +8033,12 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8009,14 +8055,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8032,18 +8078,18 @@
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8054,14 +8100,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8077,12 +8123,12 @@
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8099,14 +8145,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8122,12 +8168,12 @@
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8144,14 +8190,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8167,12 +8213,12 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8189,19 +8235,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8217,18 +8258,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8239,19 +8280,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8267,18 +8303,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
+          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8289,19 +8325,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8317,12 +8348,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8370,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,12 +8393,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
+          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8389,19 +8415,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8417,18 +8438,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8439,14 +8460,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8462,18 +8483,18 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8484,14 +8505,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8507,12 +8528,12 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8529,14 +8550,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8547,23 +8568,23 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
+          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8574,19 +8595,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8597,17 +8613,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8624,19 +8640,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8647,17 +8658,17 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8672,17 +8683,16 @@
         </is>
       </c>
       <c r="G167" s="21" t="n"/>
-      <c r="H167" s="15" t="n"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H167" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8693,17 +8703,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8720,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8743,17 +8748,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8770,19 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8793,23 +8793,23 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,19 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8843,17 +8838,17 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8870,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8888,23 +8883,27 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
-        </is>
-      </c>
-      <c r="D172" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D172" s="21" t="inlineStr">
+        <is>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8915,14 +8914,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8933,17 +8932,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,19 +8959,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,17 +8977,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9010,14 +9004,19 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,23 +9027,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9055,14 +9054,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,17 +9072,17 @@
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
+          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9100,14 +9099,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,17 +9117,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
+          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9145,14 +9144,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9163,23 +9162,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9190,14 +9189,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9208,23 +9207,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
+          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9235,14 +9234,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9253,23 +9252,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9280,14 +9279,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9298,17 +9297,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9325,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9343,23 +9342,23 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
       <c r="E182" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9370,14 +9369,19 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9388,23 +9392,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9413,16 +9417,11 @@
         </is>
       </c>
       <c r="G183" s="21" t="n"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
-        </is>
-      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9433,23 +9432,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9460,14 +9459,19 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9478,23 +9482,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9505,14 +9509,19 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9523,23 +9532,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9550,14 +9559,19 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9568,17 +9582,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9595,14 +9609,19 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,17 +9632,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9640,14 +9659,19 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9658,17 +9682,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9685,14 +9709,19 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9703,17 +9732,17 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9730,14 +9759,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9748,17 +9777,17 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9775,14 +9804,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9793,23 +9822,23 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9820,14 +9849,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9838,23 +9867,23 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
       <c r="E193" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9865,14 +9894,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9883,23 +9912,23 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9910,14 +9939,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9928,23 +9957,23 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
+          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9955,14 +9984,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9973,17 +10002,17 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10000,14 +10029,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10018,23 +10047,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10045,14 +10074,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10063,23 +10092,23 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10090,14 +10119,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10108,23 +10137,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
+          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10135,14 +10164,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10153,23 +10182,23 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10180,14 +10209,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,20 +10227,24 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
-        </is>
-      </c>
-      <c r="D201" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D201" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E201" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -10225,14 +10258,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10243,23 +10276,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Estratégia de Desenvolvimento</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10270,14 +10303,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10288,23 +10321,23 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10315,14 +10348,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10333,23 +10366,23 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Nomeação e marcação</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
+          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10360,14 +10393,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10378,23 +10411,23 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Impor hierarquia de grupo de gerenciamento razoavelmente simples com no máximo quatro níveis.</t>
+          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
       <c r="E205" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10405,19 +10438,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,23 +10456,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
+          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10455,19 +10483,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10478,17 +10501,17 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
+          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10505,19 +10528,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10528,17 +10546,17 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10555,19 +10573,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10578,17 +10591,17 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Aplique uma assinatura de conectividade dedicada no grupo de gerenciamento da Plataforma para hospedar um hub de WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10605,19 +10618,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10628,23 +10636,23 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Impor que nenhuma assinatura seja colocada no grupo de gerenciamento raiz</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10655,14 +10663,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10673,17 +10681,17 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Impor que apenas usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10700,14 +10708,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10718,17 +10726,17 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10745,14 +10753,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10763,23 +10771,23 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, acessar a revisão, revisar o orçamento, a conformidade com a política e corrigir quando necessário.</t>
+          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10790,14 +10798,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10808,17 +10816,17 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design de carga de trabalho.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10835,14 +10843,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10853,23 +10861,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Use instâncias reservadas quando apropriado para otimizar o custo e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada compradas por meio da Política do Azure.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10880,19 +10888,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10903,23 +10906,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10930,19 +10933,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10953,17 +10951,17 @@
     <row r="217">
       <c r="A217" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -10980,19 +10978,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -11003,23 +10996,23 @@
     <row r="218">
       <c r="A218" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Impor um processo para gerenciamento de custos</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11030,19 +11023,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11053,17 +11041,17 @@
     <row r="219">
       <c r="A219" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Se AD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
@@ -11080,19 +11068,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11103,17 +11086,17 @@
     <row r="220">
       <c r="A220" s="21" t="inlineStr">
         <is>
-          <t>Organização de Recursos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B220" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
@@ -11130,19 +11113,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11158,12 +11136,12 @@
       </c>
       <c r="B221" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11180,14 +11158,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11203,12 +11181,12 @@
       </c>
       <c r="B222" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
@@ -11225,14 +11203,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11248,18 +11226,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11270,14 +11248,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11293,18 +11271,18 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11315,14 +11293,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11338,18 +11316,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11360,14 +11338,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11383,18 +11361,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11405,14 +11383,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11428,18 +11406,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11450,14 +11428,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11473,12 +11451,12 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
@@ -11495,14 +11473,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11518,12 +11496,12 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -11540,14 +11518,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11563,18 +11541,18 @@
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11585,14 +11563,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11608,18 +11586,18 @@
       </c>
       <c r="B231" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
       <c r="E231" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -11630,14 +11608,14 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -11653,18 +11631,18 @@
       </c>
       <c r="B232" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Acesso privilegiado seguro</t>
         </is>
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
       <c r="E232" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -11675,14 +11653,14 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -11698,12 +11676,12 @@
       </c>
       <c r="B233" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
@@ -11720,14 +11698,14 @@
       <c r="G233" s="21" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -11743,12 +11721,12 @@
       </c>
       <c r="B234" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
@@ -11765,14 +11743,14 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -11783,23 +11761,23 @@
     <row r="235">
       <c r="A235" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B235" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
       <c r="E235" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11810,14 +11788,14 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -11828,23 +11806,23 @@
     <row r="236">
       <c r="A236" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B236" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
       <c r="E236" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11855,14 +11833,14 @@
       <c r="G236" s="21" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -11873,23 +11851,23 @@
     <row r="237">
       <c r="A237" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B237" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
+          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11900,14 +11878,14 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -11918,17 +11896,17 @@
     <row r="238">
       <c r="A238" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B238" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
+          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
@@ -11945,14 +11923,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11963,23 +11941,23 @@
     <row r="239">
       <c r="A239" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B239" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
+          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11990,14 +11968,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12008,17 +11986,17 @@
     <row r="240">
       <c r="A240" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
+          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12035,14 +12013,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12053,23 +12031,23 @@
     <row r="241">
       <c r="A241" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12080,14 +12058,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12098,23 +12076,23 @@
     <row r="242">
       <c r="A242" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12125,14 +12103,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12143,23 +12121,23 @@
     <row r="243">
       <c r="A243" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B243" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
       <c r="E243" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12170,14 +12148,14 @@
       <c r="G243" s="21" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
       <c r="L243" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M243" s="25" t="n"/>
@@ -12188,23 +12166,23 @@
     <row r="244">
       <c r="A244" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B244" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
       <c r="E244" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12215,14 +12193,14 @@
       <c r="G244" s="21" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
       <c r="L244" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M244" s="25" t="n"/>
@@ -12233,17 +12211,17 @@
     <row r="245">
       <c r="A245" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B245" s="21" t="inlineStr">
         <is>
-          <t>Acesso privilegiado seguro</t>
+          <t>Estratégia de Desenvolvimento</t>
         </is>
       </c>
       <c r="C245" s="21" t="inlineStr">
         <is>
-          <t>Separe contas de administrador privadas para tarefas administrativas do Azure.</t>
+          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
         </is>
       </c>
       <c r="D245" s="21" t="n"/>
@@ -12260,14 +12238,14 @@
       <c r="G245" s="21" t="n"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
       <c r="L245" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M245" s="25" t="n"/>
@@ -12278,23 +12256,23 @@
     <row r="246">
       <c r="A246" s="21" t="inlineStr">
         <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
           <t>Segurança</t>
         </is>
       </c>
-      <c r="B246" s="21" t="inlineStr">
-        <is>
-          <t>Estrutura de habilitação de serviço</t>
-        </is>
-      </c>
       <c r="C246" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
         </is>
       </c>
       <c r="D246" s="21" t="n"/>
       <c r="E246" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -12305,14 +12283,14 @@
       <c r="G246" s="21" t="n"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
       <c r="L246" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M246" s="25" t="n"/>
@@ -12321,45 +12299,15 @@
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B247" s="21" t="inlineStr">
-        <is>
-          <t>Estrutura de habilitação de serviço</t>
-        </is>
-      </c>
-      <c r="C247" s="21" t="inlineStr">
-        <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
-        </is>
-      </c>
+      <c r="A247" s="21" t="n"/>
+      <c r="B247" s="21" t="n"/>
+      <c r="C247" s="21" t="n"/>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E247" s="21" t="n"/>
       <c r="G247" s="21" t="n"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L247" s="25" t="n"/>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
@@ -13261,7 +13209,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F248" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F247" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13352,7 +13300,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Locatário do Azure e do Active Directory</t>
+          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Desenvolva um plano para proteger o conteúdo do aplicativo de entrega de seus raios de carga de trabalho usando o Gateway de Aplicativo e o Azure Front door.  Você pode usar a lista de verificação de entrega de aplicativos para obter recomendações.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3583,14 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando o SKU do Application Gateway v2</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU padrão para seus Balanceadores de Carga do Azure</t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,7 +3728,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3736,7 +3736,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3752,18 +3752,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Seus gateways de aplicativo devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /26</t>
+          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3802,19 +3802,15 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="inlineStr">
-        <is>
-          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura do aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
-        </is>
-      </c>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3828,19 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3856,18 +3852,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
+          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também servidores DNS.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3878,19 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3906,12 +3897,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3928,19 +3919,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3956,18 +3943,18 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
+          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,19 +3965,15 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4006,18 +3989,18 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4028,19 +4011,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4056,18 +4035,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4078,19 +4057,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4106,12 +4085,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4128,19 +4107,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4156,18 +4135,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4178,7 +4157,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4186,7 +4165,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4202,18 +4181,18 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
+          <t>Considere o limite de rotas por tabela de rotas (400).</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4224,7 +4203,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4232,7 +4211,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4248,12 +4227,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4270,7 +4249,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4278,7 +4257,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4294,18 +4273,18 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4316,15 +4295,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4340,15 +4323,19 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="n"/>
+          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="inlineStr">
+        <is>
+          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
+        </is>
+      </c>
       <c r="E76" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4362,15 +4349,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4386,18 +4377,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4408,15 +4399,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4432,12 +4427,12 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
+          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4454,7 +4449,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4462,7 +4457,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4478,12 +4473,12 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4500,7 +4495,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4508,7 +4503,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4524,12 +4519,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4546,15 +4541,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4570,12 +4569,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4592,15 +4591,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4616,18 +4619,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
+          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4638,19 +4641,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4666,12 +4669,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4688,19 +4691,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4716,12 +4719,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também servidores DNS.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4738,15 +4741,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4762,12 +4769,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4784,15 +4791,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4808,18 +4819,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
+          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,15 +4841,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4854,18 +4869,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4876,15 +4891,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4900,12 +4919,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4922,19 +4941,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4950,18 +4969,18 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4972,19 +4991,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5000,18 +5015,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5022,15 +5037,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5046,18 +5065,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Considere o limite de rotas por tabela de rotas (400).</t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5068,15 +5087,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5092,12 +5115,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5114,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5138,18 +5165,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5160,19 +5187,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5188,19 +5215,15 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
-        </is>
-      </c>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5214,19 +5237,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5242,12 +5265,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5264,19 +5287,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5292,18 +5315,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5314,7 +5337,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5322,7 +5345,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5338,12 +5361,12 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5360,15 +5383,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5384,12 +5411,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5406,19 +5433,15 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5434,12 +5457,12 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5456,19 +5479,15 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5484,18 +5503,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5506,19 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5534,12 +5553,12 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5556,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5584,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5606,19 +5625,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5634,12 +5653,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5656,19 +5675,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5684,18 +5703,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5706,19 +5725,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5734,18 +5753,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5756,19 +5775,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5784,18 +5803,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5806,19 +5825,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5834,12 +5853,12 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5856,7 +5875,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5864,7 +5883,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5880,12 +5899,12 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
+          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5902,19 +5921,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5930,18 +5945,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5952,19 +5967,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5980,12 +5991,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6002,19 +6013,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6030,12 +6037,12 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6052,19 +6059,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6080,18 +6082,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6102,19 +6104,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6130,12 +6132,12 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
+          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6152,19 +6154,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6180,18 +6182,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6202,15 +6204,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6226,18 +6232,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6248,19 +6254,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6276,12 +6282,12 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6298,14 +6304,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6321,18 +6332,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
+          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6343,14 +6354,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6366,12 +6377,12 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6388,19 +6399,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6416,12 +6423,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6438,19 +6445,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6466,18 +6468,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6488,19 +6490,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6516,12 +6518,12 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6538,19 +6540,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6566,18 +6568,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,21 +6588,17 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="n"/>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6616,18 +6614,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6638,19 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6666,18 +6664,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6688,19 +6686,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6716,18 +6714,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6738,15 +6736,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6762,18 +6764,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
+          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6784,14 +6786,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6807,18 +6809,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
+          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6829,14 +6831,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6852,18 +6854,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6874,14 +6876,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6897,18 +6904,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6919,14 +6926,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6942,18 +6949,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6964,19 +6971,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6992,12 +6994,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
+          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7014,19 +7016,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7042,12 +7039,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
+          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7064,19 +7061,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7092,12 +7084,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7114,19 +7106,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7142,18 +7129,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
+          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,19 +7151,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7187,17 +7169,17 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
+          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7214,14 +7196,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7232,23 +7214,23 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7259,14 +7241,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7277,17 +7259,17 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7304,14 +7286,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7322,17 +7304,17 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7349,19 +7331,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,17 +7349,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7399,19 +7376,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7422,23 +7394,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7447,17 +7419,16 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7468,17 +7439,17 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7495,19 +7466,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7518,20 +7484,24 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
-        </is>
-      </c>
-      <c r="D142" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D142" s="21" t="inlineStr">
+        <is>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E142" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -7545,19 +7515,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7568,17 +7533,17 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7595,19 +7560,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7618,17 +7578,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7645,14 +7605,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7663,17 +7628,17 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7690,14 +7655,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7708,17 +7673,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
+          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7735,19 +7700,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7758,17 +7718,17 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7785,14 +7745,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7803,23 +7763,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7830,14 +7790,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7848,17 +7808,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
+          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7875,14 +7835,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7893,17 +7853,17 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
+          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7920,14 +7880,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7938,17 +7898,17 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7965,14 +7925,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7983,23 +7943,23 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8010,14 +7970,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8028,23 +7993,23 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8053,16 +8018,12 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
-        </is>
-      </c>
+      <c r="H153" s="15" t="n"/>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8073,17 +8034,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8100,14 +8061,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8118,23 +8084,23 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8145,14 +8111,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8163,23 +8134,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8190,14 +8161,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8208,23 +8184,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8235,14 +8211,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8253,23 +8234,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8280,14 +8261,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8298,23 +8284,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8325,14 +8311,19 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8343,23 +8334,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8370,14 +8361,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8388,17 +8379,17 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8415,14 +8406,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8433,17 +8424,17 @@
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8460,14 +8451,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8478,23 +8469,23 @@
     <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8505,14 +8496,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8523,17 +8514,17 @@
     <row r="164" ht="16.5" customHeight="1">
       <c r="A164" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8550,14 +8541,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8568,23 +8559,23 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
+          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8595,14 +8586,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,17 +8604,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8640,14 +8631,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8658,17 +8649,17 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8685,14 +8676,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8703,17 +8694,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8730,14 +8721,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8748,17 +8739,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
+          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8766,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8793,23 +8784,23 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8811,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8838,20 +8829,24 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
-        </is>
-      </c>
-      <c r="D171" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D171" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E171" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -8865,14 +8860,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8883,24 +8878,20 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D172" s="21" t="inlineStr">
-        <is>
-          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+        </is>
+      </c>
+      <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -8914,14 +8905,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8932,17 +8923,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8959,14 +8950,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8977,17 +8968,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
+          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9004,19 +8995,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9027,23 +9013,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9054,14 +9040,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9077,18 +9063,18 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
+          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9099,14 +9085,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9117,17 +9103,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
+          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9144,14 +9130,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9162,23 +9148,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9189,14 +9175,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9207,17 +9193,17 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9234,14 +9220,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,23 +9238,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9279,14 +9265,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,17 +9283,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9324,14 +9310,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9342,17 +9328,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9369,19 +9355,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9392,17 +9373,17 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9417,11 +9398,16 @@
         </is>
       </c>
       <c r="G183" s="21" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,17 +9418,17 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9459,19 +9445,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,17 +9463,17 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9509,19 +9490,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,17 +9508,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9559,19 +9535,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9582,17 +9553,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9609,19 +9580,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9632,17 +9598,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9659,19 +9625,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9682,17 +9643,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9709,19 +9670,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9732,23 +9688,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9759,14 +9715,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9777,17 +9733,17 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9804,14 +9760,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9822,17 +9778,17 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9849,14 +9805,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9867,17 +9823,17 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9894,14 +9850,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9912,23 +9868,23 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9939,14 +9895,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9957,23 +9913,23 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
+          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9984,14 +9940,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10002,23 +9958,23 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10029,14 +9985,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10047,23 +10003,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10074,14 +10030,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10092,17 +10048,17 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10119,14 +10075,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10137,17 +10093,17 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10164,14 +10120,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10182,23 +10138,23 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Conformidade operacional</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10209,14 +10165,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10227,27 +10183,23 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Conformidade operacional</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="D201" s="21" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+        </is>
+      </c>
+      <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10258,14 +10210,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10276,23 +10228,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Acesso privilegiado seguro</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10303,14 +10255,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10321,17 +10273,17 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10348,14 +10300,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10366,17 +10318,17 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10393,14 +10345,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10411,17 +10363,17 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
+          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10438,14 +10390,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10456,23 +10408,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
+          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10483,14 +10435,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10501,23 +10453,23 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
+          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10528,14 +10480,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10546,23 +10498,23 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10573,14 +10525,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10591,17 +10543,17 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10618,14 +10570,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10636,17 +10588,17 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10663,14 +10615,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10681,23 +10633,23 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10708,14 +10660,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10726,23 +10678,23 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10753,14 +10705,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10771,23 +10723,23 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
+          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10798,14 +10750,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10816,17 +10768,17 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10843,14 +10795,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10861,23 +10813,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Estratégia de Desenvolvimento</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10888,14 +10840,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10906,23 +10858,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B216" s="21" t="inlineStr">
+        <is>
           <t>Segurança</t>
         </is>
       </c>
-      <c r="B216" s="21" t="inlineStr">
-        <is>
-          <t>Criptografia e chaves</t>
-        </is>
-      </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10933,14 +10885,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10949,1350 +10901,450 @@
       <c r="P216" s="25" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B217" s="21" t="inlineStr">
-        <is>
-          <t>Criptografia e chaves</t>
-        </is>
-      </c>
-      <c r="C217" s="21" t="inlineStr">
-        <is>
-          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
-        </is>
-      </c>
+      <c r="A217" s="21" t="n"/>
+      <c r="B217" s="21" t="n"/>
+      <c r="C217" s="21" t="n"/>
       <c r="D217" s="21" t="n"/>
-      <c r="E217" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E217" s="21" t="n"/>
       <c r="G217" s="21" t="n"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
-        </is>
-      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
-      <c r="L217" s="25" t="inlineStr">
-        <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
-        </is>
-      </c>
+      <c r="L217" s="25" t="n"/>
       <c r="M217" s="25" t="n"/>
       <c r="N217" s="25" t="n"/>
       <c r="O217" s="25" t="n"/>
       <c r="P217" s="25" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B218" s="21" t="inlineStr">
-        <is>
-          <t>Criptografia e chaves</t>
-        </is>
-      </c>
-      <c r="C218" s="21" t="inlineStr">
-        <is>
-          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
-        </is>
-      </c>
+      <c r="A218" s="21" t="n"/>
+      <c r="B218" s="21" t="n"/>
+      <c r="C218" s="21" t="n"/>
       <c r="D218" s="21" t="n"/>
-      <c r="E218" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E218" s="21" t="n"/>
       <c r="G218" s="21" t="n"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
-      <c r="L218" s="25" t="inlineStr">
-        <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
-        </is>
-      </c>
+      <c r="L218" s="25" t="n"/>
       <c r="M218" s="25" t="n"/>
       <c r="N218" s="25" t="n"/>
       <c r="O218" s="25" t="n"/>
       <c r="P218" s="25" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B219" s="21" t="inlineStr">
-        <is>
-          <t>Criptografia e chaves</t>
-        </is>
-      </c>
-      <c r="C219" s="21" t="inlineStr">
-        <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
-        </is>
-      </c>
+      <c r="A219" s="21" t="n"/>
+      <c r="B219" s="21" t="n"/>
+      <c r="C219" s="21" t="n"/>
       <c r="D219" s="21" t="n"/>
-      <c r="E219" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E219" s="21" t="n"/>
       <c r="G219" s="21" t="n"/>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
-        </is>
-      </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
-      <c r="L219" s="25" t="inlineStr">
-        <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
-        </is>
-      </c>
+      <c r="L219" s="25" t="n"/>
       <c r="M219" s="25" t="n"/>
       <c r="N219" s="25" t="n"/>
       <c r="O219" s="25" t="n"/>
       <c r="P219" s="25" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B220" s="21" t="inlineStr">
-        <is>
-          <t>Criptografia e chaves</t>
-        </is>
-      </c>
-      <c r="C220" s="21" t="inlineStr">
-        <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
-        </is>
-      </c>
+      <c r="A220" s="21" t="n"/>
+      <c r="B220" s="21" t="n"/>
+      <c r="C220" s="21" t="n"/>
       <c r="D220" s="21" t="n"/>
-      <c r="E220" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E220" s="21" t="n"/>
       <c r="G220" s="21" t="n"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
-      <c r="L220" s="25" t="inlineStr">
-        <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
-        </is>
-      </c>
+      <c r="L220" s="25" t="n"/>
       <c r="M220" s="25" t="n"/>
       <c r="N220" s="25" t="n"/>
       <c r="O220" s="25" t="n"/>
       <c r="P220" s="25" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B221" s="21" t="inlineStr">
-        <is>
-          <t>Criptografia e chaves</t>
-        </is>
-      </c>
-      <c r="C221" s="21" t="inlineStr">
-        <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
-        </is>
-      </c>
+      <c r="A221" s="21" t="n"/>
+      <c r="B221" s="21" t="n"/>
+      <c r="C221" s="21" t="n"/>
       <c r="D221" s="21" t="n"/>
-      <c r="E221" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E221" s="21" t="n"/>
       <c r="G221" s="21" t="n"/>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
-      <c r="L221" s="25" t="inlineStr">
-        <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
-        </is>
-      </c>
+      <c r="L221" s="25" t="n"/>
       <c r="M221" s="25" t="n"/>
       <c r="N221" s="25" t="n"/>
       <c r="O221" s="25" t="n"/>
       <c r="P221" s="25" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B222" s="21" t="inlineStr">
-        <is>
-          <t>Operações</t>
-        </is>
-      </c>
-      <c r="C222" s="21" t="inlineStr">
-        <is>
-          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
-        </is>
-      </c>
+      <c r="A222" s="21" t="n"/>
+      <c r="B222" s="21" t="n"/>
+      <c r="C222" s="21" t="n"/>
       <c r="D222" s="21" t="n"/>
-      <c r="E222" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E222" s="21" t="n"/>
       <c r="G222" s="21" t="n"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
-        </is>
-      </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
-      <c r="L222" s="25" t="inlineStr">
-        <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
-        </is>
-      </c>
+      <c r="L222" s="25" t="n"/>
       <c r="M222" s="25" t="n"/>
       <c r="N222" s="25" t="n"/>
       <c r="O222" s="25" t="n"/>
       <c r="P222" s="25" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B223" s="21" t="inlineStr">
-        <is>
-          <t>Operações</t>
-        </is>
-      </c>
-      <c r="C223" s="21" t="inlineStr">
-        <is>
-          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
-        </is>
-      </c>
+      <c r="A223" s="21" t="n"/>
+      <c r="B223" s="21" t="n"/>
+      <c r="C223" s="21" t="n"/>
       <c r="D223" s="21" t="n"/>
-      <c r="E223" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E223" s="21" t="n"/>
       <c r="G223" s="21" t="n"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
-        </is>
-      </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
-      <c r="L223" s="25" t="inlineStr">
-        <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
-        </is>
-      </c>
+      <c r="L223" s="25" t="n"/>
       <c r="M223" s="25" t="n"/>
       <c r="N223" s="25" t="n"/>
       <c r="O223" s="25" t="n"/>
       <c r="P223" s="25" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B224" s="21" t="inlineStr">
-        <is>
-          <t>Operações</t>
-        </is>
-      </c>
-      <c r="C224" s="21" t="inlineStr">
-        <is>
-          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
-        </is>
-      </c>
+      <c r="A224" s="21" t="n"/>
+      <c r="B224" s="21" t="n"/>
+      <c r="C224" s="21" t="n"/>
       <c r="D224" s="21" t="n"/>
-      <c r="E224" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E224" s="21" t="n"/>
       <c r="G224" s="21" t="n"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
-        </is>
-      </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
-      <c r="L224" s="25" t="inlineStr">
-        <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
-        </is>
-      </c>
+      <c r="L224" s="25" t="n"/>
       <c r="M224" s="25" t="n"/>
       <c r="N224" s="25" t="n"/>
       <c r="O224" s="25" t="n"/>
       <c r="P224" s="25" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B225" s="21" t="inlineStr">
-        <is>
-          <t>Operações</t>
-        </is>
-      </c>
-      <c r="C225" s="21" t="inlineStr">
-        <is>
-          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
-        </is>
-      </c>
+      <c r="A225" s="21" t="n"/>
+      <c r="B225" s="21" t="n"/>
+      <c r="C225" s="21" t="n"/>
       <c r="D225" s="21" t="n"/>
-      <c r="E225" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E225" s="21" t="n"/>
       <c r="G225" s="21" t="n"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
-        </is>
-      </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
-      <c r="L225" s="25" t="inlineStr">
-        <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
-        </is>
-      </c>
+      <c r="L225" s="25" t="n"/>
       <c r="M225" s="25" t="n"/>
       <c r="N225" s="25" t="n"/>
       <c r="O225" s="25" t="n"/>
       <c r="P225" s="25" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B226" s="21" t="inlineStr">
-        <is>
-          <t>Operações</t>
-        </is>
-      </c>
-      <c r="C226" s="21" t="inlineStr">
-        <is>
-          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
-        </is>
-      </c>
+      <c r="A226" s="21" t="n"/>
+      <c r="B226" s="21" t="n"/>
+      <c r="C226" s="21" t="n"/>
       <c r="D226" s="21" t="n"/>
-      <c r="E226" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E226" s="21" t="n"/>
       <c r="G226" s="21" t="n"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
-        </is>
-      </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
-      <c r="L226" s="25" t="inlineStr">
-        <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
-        </is>
-      </c>
+      <c r="L226" s="25" t="n"/>
       <c r="M226" s="25" t="n"/>
       <c r="N226" s="25" t="n"/>
       <c r="O226" s="25" t="n"/>
       <c r="P226" s="25" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B227" s="21" t="inlineStr">
-        <is>
-          <t>Operações</t>
-        </is>
-      </c>
-      <c r="C227" s="21" t="inlineStr">
-        <is>
-          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
-        </is>
-      </c>
+      <c r="A227" s="21" t="n"/>
+      <c r="B227" s="21" t="n"/>
+      <c r="C227" s="21" t="n"/>
       <c r="D227" s="21" t="n"/>
-      <c r="E227" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E227" s="21" t="n"/>
       <c r="G227" s="21" t="n"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
-        </is>
-      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
-      <c r="L227" s="25" t="inlineStr">
-        <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
-        </is>
-      </c>
+      <c r="L227" s="25" t="n"/>
       <c r="M227" s="25" t="n"/>
       <c r="N227" s="25" t="n"/>
       <c r="O227" s="25" t="n"/>
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>Operações</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
       <c r="P228" s="25" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B229" s="21" t="inlineStr">
-        <is>
-          <t>Operações</t>
-        </is>
-      </c>
-      <c r="C229" s="21" t="inlineStr">
-        <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
-        </is>
-      </c>
+      <c r="A229" s="21" t="n"/>
+      <c r="B229" s="21" t="n"/>
+      <c r="C229" s="21" t="n"/>
       <c r="D229" s="21" t="n"/>
-      <c r="E229" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E229" s="21" t="n"/>
       <c r="G229" s="21" t="n"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
-      <c r="L229" s="25" t="inlineStr">
-        <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
-        </is>
-      </c>
+      <c r="L229" s="25" t="n"/>
       <c r="M229" s="25" t="n"/>
       <c r="N229" s="25" t="n"/>
       <c r="O229" s="25" t="n"/>
       <c r="P229" s="25" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B230" s="21" t="inlineStr">
-        <is>
-          <t>Visão geral</t>
-        </is>
-      </c>
-      <c r="C230" s="21" t="inlineStr">
-        <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
-        </is>
-      </c>
+      <c r="A230" s="21" t="n"/>
+      <c r="B230" s="21" t="n"/>
+      <c r="C230" s="21" t="n"/>
       <c r="D230" s="21" t="n"/>
-      <c r="E230" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E230" s="21" t="n"/>
       <c r="G230" s="21" t="n"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
-        </is>
-      </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
-      <c r="L230" s="25" t="inlineStr">
-        <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
-        </is>
-      </c>
+      <c r="L230" s="25" t="n"/>
       <c r="M230" s="25" t="n"/>
       <c r="N230" s="25" t="n"/>
       <c r="O230" s="25" t="n"/>
       <c r="P230" s="25" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B231" s="21" t="inlineStr">
-        <is>
-          <t>Visão geral</t>
-        </is>
-      </c>
-      <c r="C231" s="21" t="inlineStr">
-        <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
-        </is>
-      </c>
+      <c r="A231" s="21" t="n"/>
+      <c r="B231" s="21" t="n"/>
+      <c r="C231" s="21" t="n"/>
       <c r="D231" s="21" t="n"/>
-      <c r="E231" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E231" s="21" t="n"/>
       <c r="G231" s="21" t="n"/>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
-        </is>
-      </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
-      <c r="L231" s="25" t="inlineStr">
-        <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
-        </is>
-      </c>
+      <c r="L231" s="25" t="n"/>
       <c r="M231" s="25" t="n"/>
       <c r="N231" s="25" t="n"/>
       <c r="O231" s="25" t="n"/>
       <c r="P231" s="25" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B232" s="21" t="inlineStr">
-        <is>
-          <t>Acesso privilegiado seguro</t>
-        </is>
-      </c>
-      <c r="C232" s="21" t="inlineStr">
-        <is>
-          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
-        </is>
-      </c>
+      <c r="A232" s="21" t="n"/>
+      <c r="B232" s="21" t="n"/>
+      <c r="C232" s="21" t="n"/>
       <c r="D232" s="21" t="n"/>
-      <c r="E232" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E232" s="21" t="n"/>
       <c r="G232" s="21" t="n"/>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
-      <c r="L232" s="25" t="inlineStr">
-        <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
-        </is>
-      </c>
+      <c r="L232" s="25" t="n"/>
       <c r="M232" s="25" t="n"/>
       <c r="N232" s="25" t="n"/>
       <c r="O232" s="25" t="n"/>
       <c r="P232" s="25" t="n"/>
     </row>
     <row r="233">
-      <c r="A233" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B233" s="21" t="inlineStr">
-        <is>
-          <t>Estrutura de habilitação de serviço</t>
-        </is>
-      </c>
-      <c r="C233" s="21" t="inlineStr">
-        <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
-        </is>
-      </c>
+      <c r="A233" s="21" t="n"/>
+      <c r="B233" s="21" t="n"/>
+      <c r="C233" s="21" t="n"/>
       <c r="D233" s="21" t="n"/>
-      <c r="E233" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E233" s="21" t="n"/>
       <c r="G233" s="21" t="n"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
-      <c r="L233" s="25" t="inlineStr">
-        <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
-        </is>
-      </c>
+      <c r="L233" s="25" t="n"/>
       <c r="M233" s="25" t="n"/>
       <c r="N233" s="25" t="n"/>
       <c r="O233" s="25" t="n"/>
       <c r="P233" s="25" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B234" s="21" t="inlineStr">
-        <is>
-          <t>Estrutura de habilitação de serviço</t>
-        </is>
-      </c>
-      <c r="C234" s="21" t="inlineStr">
-        <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
-        </is>
-      </c>
+      <c r="A234" s="21" t="n"/>
+      <c r="B234" s="21" t="n"/>
+      <c r="C234" s="21" t="n"/>
       <c r="D234" s="21" t="n"/>
-      <c r="E234" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E234" s="21" t="n"/>
       <c r="G234" s="21" t="n"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
-      <c r="L234" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L234" s="25" t="n"/>
       <c r="M234" s="25" t="n"/>
       <c r="N234" s="25" t="n"/>
       <c r="O234" s="25" t="n"/>
       <c r="P234" s="25" t="n"/>
     </row>
     <row r="235">
-      <c r="A235" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B235" s="21" t="inlineStr">
-        <is>
-          <t>Topologias de equipe de DevOps</t>
-        </is>
-      </c>
-      <c r="C235" s="21" t="inlineStr">
-        <is>
-          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
-        </is>
-      </c>
+      <c r="A235" s="21" t="n"/>
+      <c r="B235" s="21" t="n"/>
+      <c r="C235" s="21" t="n"/>
       <c r="D235" s="21" t="n"/>
-      <c r="E235" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E235" s="21" t="n"/>
       <c r="G235" s="21" t="n"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
-        </is>
-      </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
-      <c r="L235" s="25" t="inlineStr">
-        <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
-        </is>
-      </c>
+      <c r="L235" s="25" t="n"/>
       <c r="M235" s="25" t="n"/>
       <c r="N235" s="25" t="n"/>
       <c r="O235" s="25" t="n"/>
       <c r="P235" s="25" t="n"/>
     </row>
     <row r="236">
-      <c r="A236" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B236" s="21" t="inlineStr">
-        <is>
-          <t>Topologias de equipe de DevOps</t>
-        </is>
-      </c>
-      <c r="C236" s="21" t="inlineStr">
-        <is>
-          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
-        </is>
-      </c>
+      <c r="A236" s="21" t="n"/>
+      <c r="B236" s="21" t="n"/>
+      <c r="C236" s="21" t="n"/>
       <c r="D236" s="21" t="n"/>
-      <c r="E236" s="21" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E236" s="21" t="n"/>
       <c r="G236" s="21" t="n"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
-        </is>
-      </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
-      <c r="L236" s="25" t="inlineStr">
-        <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
-        </is>
-      </c>
+      <c r="L236" s="25" t="n"/>
       <c r="M236" s="25" t="n"/>
       <c r="N236" s="25" t="n"/>
       <c r="O236" s="25" t="n"/>
       <c r="P236" s="25" t="n"/>
     </row>
     <row r="237">
-      <c r="A237" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B237" s="21" t="inlineStr">
-        <is>
-          <t>Topologias de equipe de DevOps</t>
-        </is>
-      </c>
-      <c r="C237" s="21" t="inlineStr">
-        <is>
-          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
-        </is>
-      </c>
+      <c r="A237" s="21" t="n"/>
+      <c r="B237" s="21" t="n"/>
+      <c r="C237" s="21" t="n"/>
       <c r="D237" s="21" t="n"/>
-      <c r="E237" s="21" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E237" s="21" t="n"/>
       <c r="G237" s="21" t="n"/>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
-        </is>
-      </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
-      <c r="L237" s="25" t="inlineStr">
-        <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
-        </is>
-      </c>
+      <c r="L237" s="25" t="n"/>
       <c r="M237" s="25" t="n"/>
       <c r="N237" s="25" t="n"/>
       <c r="O237" s="25" t="n"/>
       <c r="P237" s="25" t="n"/>
     </row>
     <row r="238">
-      <c r="A238" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B238" s="21" t="inlineStr">
-        <is>
-          <t>Topologias de equipe de DevOps</t>
-        </is>
-      </c>
-      <c r="C238" s="21" t="inlineStr">
-        <is>
-          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
-        </is>
-      </c>
+      <c r="A238" s="21" t="n"/>
+      <c r="B238" s="21" t="n"/>
+      <c r="C238" s="21" t="n"/>
       <c r="D238" s="21" t="n"/>
-      <c r="E238" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E238" s="21" t="n"/>
       <c r="G238" s="21" t="n"/>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
-      <c r="L238" s="25" t="inlineStr">
-        <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
-        </is>
-      </c>
+      <c r="L238" s="25" t="n"/>
       <c r="M238" s="25" t="n"/>
       <c r="N238" s="25" t="n"/>
       <c r="O238" s="25" t="n"/>
       <c r="P238" s="25" t="n"/>
     </row>
     <row r="239">
-      <c r="A239" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B239" s="21" t="inlineStr">
-        <is>
-          <t>Topologias de equipe de DevOps</t>
-        </is>
-      </c>
-      <c r="C239" s="21" t="inlineStr">
-        <is>
-          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
-        </is>
-      </c>
+      <c r="A239" s="21" t="n"/>
+      <c r="B239" s="21" t="n"/>
+      <c r="C239" s="21" t="n"/>
       <c r="D239" s="21" t="n"/>
-      <c r="E239" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E239" s="21" t="n"/>
       <c r="G239" s="21" t="n"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
-      <c r="L239" s="25" t="inlineStr">
-        <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
-        </is>
-      </c>
+      <c r="L239" s="25" t="n"/>
       <c r="M239" s="25" t="n"/>
       <c r="N239" s="25" t="n"/>
       <c r="O239" s="25" t="n"/>
       <c r="P239" s="25" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B240" s="21" t="inlineStr">
-        <is>
-          <t>Topologias de equipe de DevOps</t>
-        </is>
-      </c>
-      <c r="C240" s="21" t="inlineStr">
-        <is>
-          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
-        </is>
-      </c>
+      <c r="A240" s="21" t="n"/>
+      <c r="B240" s="21" t="n"/>
+      <c r="C240" s="21" t="n"/>
       <c r="D240" s="21" t="n"/>
-      <c r="E240" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E240" s="21" t="n"/>
       <c r="G240" s="21" t="n"/>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
-      <c r="L240" s="25" t="inlineStr">
-        <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
-        </is>
-      </c>
+      <c r="L240" s="25" t="n"/>
       <c r="M240" s="25" t="n"/>
       <c r="N240" s="25" t="n"/>
       <c r="O240" s="25" t="n"/>
       <c r="P240" s="25" t="n"/>
     </row>
     <row r="241">
-      <c r="A241" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B241" s="21" t="inlineStr">
-        <is>
-          <t>Topologias de equipe de DevOps</t>
-        </is>
-      </c>
-      <c r="C241" s="21" t="inlineStr">
-        <is>
-          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
-        </is>
-      </c>
+      <c r="A241" s="21" t="n"/>
+      <c r="B241" s="21" t="n"/>
+      <c r="C241" s="21" t="n"/>
       <c r="D241" s="21" t="n"/>
-      <c r="E241" s="21" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E241" s="21" t="n"/>
       <c r="G241" s="21" t="n"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
-        </is>
-      </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
-      <c r="L241" s="25" t="inlineStr">
-        <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
-        </is>
-      </c>
+      <c r="L241" s="25" t="n"/>
       <c r="M241" s="25" t="n"/>
       <c r="N241" s="25" t="n"/>
       <c r="O241" s="25" t="n"/>
       <c r="P241" s="25" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B242" s="21" t="inlineStr">
-        <is>
-          <t>Ciclo de vida do desenvolvimento</t>
-        </is>
-      </c>
-      <c r="C242" s="21" t="inlineStr">
-        <is>
-          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
-        </is>
-      </c>
+      <c r="A242" s="21" t="n"/>
+      <c r="B242" s="21" t="n"/>
+      <c r="C242" s="21" t="n"/>
       <c r="D242" s="21" t="n"/>
-      <c r="E242" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E242" s="21" t="n"/>
       <c r="G242" s="21" t="n"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
-      <c r="L242" s="25" t="inlineStr">
-        <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
-        </is>
-      </c>
+      <c r="L242" s="25" t="n"/>
       <c r="M242" s="25" t="n"/>
       <c r="N242" s="25" t="n"/>
       <c r="O242" s="25" t="n"/>
       <c r="P242" s="25" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B243" s="21" t="inlineStr">
-        <is>
-          <t>Ciclo de vida do desenvolvimento</t>
-        </is>
-      </c>
-      <c r="C243" s="21" t="inlineStr">
-        <is>
-          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
-        </is>
-      </c>
+      <c r="A243" s="21" t="n"/>
+      <c r="B243" s="21" t="n"/>
+      <c r="C243" s="21" t="n"/>
       <c r="D243" s="21" t="n"/>
-      <c r="E243" s="21" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E243" s="21" t="n"/>
       <c r="G243" s="21" t="n"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
-      <c r="L243" s="25" t="inlineStr">
-        <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
-        </is>
-      </c>
+      <c r="L243" s="25" t="n"/>
       <c r="M243" s="25" t="n"/>
       <c r="N243" s="25" t="n"/>
       <c r="O243" s="25" t="n"/>
       <c r="P243" s="25" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B244" s="21" t="inlineStr">
-        <is>
-          <t>Ciclo de vida do desenvolvimento</t>
-        </is>
-      </c>
-      <c r="C244" s="21" t="inlineStr">
-        <is>
-          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
-        </is>
-      </c>
+      <c r="A244" s="21" t="n"/>
+      <c r="B244" s="21" t="n"/>
+      <c r="C244" s="21" t="n"/>
       <c r="D244" s="21" t="n"/>
-      <c r="E244" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E244" s="21" t="n"/>
       <c r="G244" s="21" t="n"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
-      <c r="L244" s="25" t="inlineStr">
-        <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
-        </is>
-      </c>
+      <c r="L244" s="25" t="n"/>
       <c r="M244" s="25" t="n"/>
       <c r="N244" s="25" t="n"/>
       <c r="O244" s="25" t="n"/>
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B245" s="21" t="inlineStr">
-        <is>
-          <t>Estratégia de Desenvolvimento</t>
-        </is>
-      </c>
-      <c r="C245" s="21" t="inlineStr">
-        <is>
-          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
-        </is>
-      </c>
+      <c r="A245" s="21" t="n"/>
+      <c r="B245" s="21" t="n"/>
+      <c r="C245" s="21" t="n"/>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E245" s="21" t="n"/>
       <c r="G245" s="21" t="n"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="inlineStr">
-        <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
-        </is>
-      </c>
+      <c r="L245" s="25" t="n"/>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B246" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C246" s="21" t="inlineStr">
-        <is>
-          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
-        </is>
-      </c>
+      <c r="A246" s="21" t="n"/>
+      <c r="B246" s="21" t="n"/>
+      <c r="C246" s="21" t="n"/>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E246" s="21" t="n"/>
       <c r="G246" s="21" t="n"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L246" s="25" t="n"/>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
@@ -13209,7 +12261,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F247" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -3366,13 +3366,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
+          <t>Impor um processo para gerenciamento de custos</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3383,19 +3383,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3416,13 +3416,13 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Impor um processo para gerenciamento de custos</t>
+          <t>Se AD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento Indentity, para hospedar controladores de domínio do Active Directory do Windows Server</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3433,19 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Se AD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento Indentity, para hospedar controladores de domínio do Active Directory do Windows Server</t>
+          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3483,19 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3511,18 +3511,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Regiões</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
+          <t>Selecione a(s) região(ões) do Azure certa para sua implantação. O Azure é uma plataforma de nuvem de escala global que fornece cobertura global em muitas regiões e geografias. Diferentes regiões do Azure têm diferentes características, modelos de acesso e disponibilidade, custos, capacidade e serviços oferecidos, por isso é importante considerar todos os critérios e requisitos</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3533,19 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3556,17 +3556,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Regiões</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Desenvolva um plano para proteger o conteúdo do aplicativo de entrega de seus raios de carga de trabalho usando o Gateway de Aplicativo e o Azure Front door.  Você pode usar a lista de verificação de entrega de aplicativos para obter recomendações.</t>
+          <t>Considere uma implantação de várias regiões. Dependendo do tamanho do cliente, locais e presença de usuários, operar em várias regiões pode ser uma escolha comum para fornecer serviços e executar aplicativos mais próximos a eles. O uso de uma implantação de várias regiões também é importante para fornecer recursos de recuperação de desastres geográficos, para eliminar a dependência de uma única capacidade de região e diminuir o risco de uma restrição de capacidade de recursos temporária e localizada</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3583,14 +3583,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3601,17 +3606,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Regiões</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Execute a entrega de aplicativos dentro das zonas de aterrissagem para aplicativos internos (corp) e externos (online).</t>
+          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3628,19 +3633,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3661,7 +3666,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
+          <t>Desenvolva um plano para proteger o conteúdo do aplicativo de entrega de seus raios de carga de trabalho usando o Gateway de Aplicativo e o Azure Front door.  Você pode usar a lista de verificação de entrega de aplicativos para obter recomendações.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3683,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
+          <t>Execute a entrega de aplicativos dentro das zonas de aterrissagem para aplicativos internos (corp) e externos (online).</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,15 +3728,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3752,18 +3756,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3778,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3802,12 +3806,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3824,19 +3828,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3852,18 +3852,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também servidores DNS.</t>
+          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,14 +3874,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3902,7 +3907,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3919,15 +3924,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3948,13 +3957,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
+          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também servidores DNS.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3965,7 +3974,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -3973,7 +3982,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,13 +4003,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4011,7 +4020,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4019,7 +4028,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4040,13 +4049,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
+          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4057,19 +4066,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4090,13 +4095,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4107,19 +4112,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4140,7 +4141,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4157,15 +4158,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4186,7 +4191,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Considere o limite de rotas por tabela de rotas (400).</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4203,15 +4208,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4232,13 +4241,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4249,7 +4258,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4257,7 +4266,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4273,12 +4282,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
+          <t>Considere o limite de rotas por tabela de rotas (400).</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4295,19 +4304,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4323,22 +4328,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
-        </is>
-      </c>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4349,19 +4350,15 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4382,7 +4379,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4399,7 +4396,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
@@ -4411,7 +4408,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4432,13 +4429,17 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="n"/>
+          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="inlineStr">
+        <is>
+          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
+        </is>
+      </c>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4449,15 +4450,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4478,13 +4483,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
+          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4495,15 +4500,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4524,13 +4533,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4541,19 +4550,15 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4574,13 +4579,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4591,19 +4596,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4624,7 +4625,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4641,7 +4642,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
@@ -4653,7 +4654,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4674,7 +4675,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4691,19 +4692,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4724,13 +4725,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
+          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4741,7 +4742,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
@@ -4753,7 +4754,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4774,7 +4775,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4791,19 +4792,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4824,13 +4825,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4841,7 +4842,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
@@ -4853,7 +4854,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4874,7 +4875,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4891,7 +4892,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
@@ -4903,7 +4904,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4924,7 +4925,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
+          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4941,7 +4942,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4953,7 +4954,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4974,13 +4975,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4991,15 +4992,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5015,18 +5020,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5037,19 +5042,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5065,18 +5070,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5087,19 +5092,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,7 +5121,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5149,7 +5150,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5170,13 +5171,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5187,19 +5188,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5220,13 +5221,13 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5237,19 +5238,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5270,13 +5271,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,19 +5288,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5320,13 +5321,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5340,12 +5341,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I96" s="15" t="n"/>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5366,13 +5371,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5383,19 +5388,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5411,18 +5416,18 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5433,7 +5438,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5441,7 +5446,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5457,18 +5462,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,15 +5484,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5517,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5534,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,7 +5563,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5575,19 +5580,15 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,13 +5609,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5626,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -5637,7 +5638,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,7 +5659,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5675,19 +5676,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,7 +5709,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5725,19 +5726,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,13 +5759,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5775,19 +5776,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5808,13 +5809,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,19 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5858,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5875,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5904,7 +5909,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5921,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,7 +5959,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5967,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5975,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6005,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
+          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,7 +6022,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -6021,7 +6030,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6042,7 +6051,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6059,14 +6068,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6082,12 +6091,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6104,19 +6113,15 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6132,18 +6137,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
+          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6154,19 +6159,15 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6182,18 +6183,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
+          <t>Avalie e analise a configuração e a estratégia do tráfego de saída da rede antes da próxima mudança de ruptura. Em 30 de setembro de 2025, o acesso de saída padrão para novas implantações será desativado e apenas as configurações de acesso explícito serão permitidas</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6204,19 +6205,15 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6237,13 +6234,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6254,7 +6251,7 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6266,7 +6263,7 @@
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6287,7 +6284,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
+          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6309,14 +6306,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6332,18 +6329,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
+          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6354,14 +6351,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6377,18 +6379,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6399,15 +6401,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,12 +6429,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6445,14 +6451,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,13 +6484,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
+          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6490,19 +6501,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,13 +6530,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6540,19 +6547,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6573,7 +6576,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6588,17 +6591,17 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6622,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,19 +6639,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6669,7 +6672,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6686,19 +6689,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6714,12 +6717,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6734,21 +6737,17 @@
         </is>
       </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="n"/>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6764,12 +6763,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6786,14 +6785,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6809,18 +6813,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6831,14 +6835,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6859,7 +6868,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6876,19 +6885,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6909,7 +6918,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6926,14 +6935,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6954,13 +6963,13 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6971,14 +6980,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6999,7 +7008,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7016,14 +7025,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7044,7 +7058,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7061,14 +7075,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7089,7 +7103,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7106,14 +7120,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7134,13 +7148,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
+          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7151,14 +7165,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7169,23 +7183,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
+          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7196,14 +7210,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7214,17 +7228,17 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
+          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7241,14 +7255,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7259,23 +7273,23 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7286,14 +7300,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7314,13 +7328,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
+          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7338,7 +7352,7 @@
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7359,7 +7373,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7376,14 +7390,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7404,13 +7418,13 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7421,14 +7435,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7449,7 +7463,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7473,7 +7487,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7494,14 +7508,10 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D142" s="21" t="inlineStr">
-        <is>
-          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
+        </is>
+      </c>
+      <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -7515,14 +7525,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7543,13 +7553,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7560,14 +7570,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7588,7 +7598,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7605,19 +7615,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7633,18 +7638,22 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
-        </is>
-      </c>
-      <c r="D145" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="inlineStr">
+        <is>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7655,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7673,17 +7682,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7700,14 +7709,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7723,12 +7732,12 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7745,14 +7754,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7763,23 +7777,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7790,14 +7804,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7808,17 +7822,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
+          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7835,14 +7849,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7853,17 +7867,17 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
+          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7880,14 +7894,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7903,18 +7917,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
+          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7925,14 +7939,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7948,12 +7962,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7970,19 +7984,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -7998,12 +8007,12 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8018,12 +8027,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8039,12 +8052,12 @@
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8061,19 +8074,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8094,7 +8102,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8111,19 +8119,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8144,7 +8152,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8159,21 +8167,12 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H156" s="15" t="n"/>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8194,7 +8193,7 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8211,19 +8210,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8244,7 +8243,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8261,19 +8260,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8294,7 +8293,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8311,7 +8310,7 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8323,7 +8322,7 @@
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8344,13 +8343,13 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8361,14 +8360,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8389,7 +8393,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8406,14 +8410,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8434,7 +8443,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8451,14 +8460,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8479,13 +8493,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8496,14 +8510,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8524,7 +8538,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8541,14 +8555,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8569,7 +8583,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8586,14 +8600,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8614,7 +8628,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8631,14 +8645,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8673,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,14 +8690,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8704,7 +8718,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8721,14 +8735,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8749,7 +8763,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8766,14 +8780,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8789,12 +8803,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Conformidade operacional</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8811,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8834,19 +8848,15 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Conformidade operacional</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="D171" s="21" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+        </is>
+      </c>
+      <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -8860,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8883,12 +8893,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8905,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8928,12 +8938,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8950,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8973,15 +8983,19 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
-        </is>
-      </c>
-      <c r="D174" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D174" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E174" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -8995,14 +9009,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9013,23 +9027,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9040,14 +9054,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9058,23 +9072,23 @@
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9085,14 +9099,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9103,17 +9117,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
+          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9130,14 +9144,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9148,23 +9162,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9175,14 +9189,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9193,23 +9207,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9220,14 +9234,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9238,23 +9252,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9265,14 +9279,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9288,12 +9302,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9310,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9333,12 +9347,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9355,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9383,13 +9397,13 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9400,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9428,7 +9442,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9445,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9473,7 +9487,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9497,7 +9511,7 @@
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,7 +9532,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9542,7 +9556,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9563,7 +9577,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9580,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9608,7 +9622,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9632,7 +9646,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9653,7 +9667,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9670,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9698,7 +9712,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9715,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9743,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9767,7 +9781,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9783,12 +9797,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9805,14 +9819,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9828,12 +9842,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9850,14 +9864,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9873,18 +9887,18 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9895,14 +9909,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9923,13 +9937,13 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
+          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9940,14 +9954,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9968,13 +9982,13 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -9985,14 +9999,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10013,7 +10027,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
+          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10030,14 +10044,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10058,13 +10072,13 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10075,14 +10089,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10103,13 +10117,13 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10120,14 +10134,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10143,12 +10157,12 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10165,14 +10179,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10188,18 +10202,18 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10210,14 +10224,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10233,18 +10247,18 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Acesso privilegiado seguro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10255,14 +10269,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10278,18 +10292,18 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Estrutura de habilitação de serviço</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10300,14 +10314,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10323,18 +10337,18 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Estrutura de habilitação de serviço</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10345,14 +10359,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10363,17 +10377,17 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Acesso privilegiado seguro</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
+          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10390,14 +10404,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10408,23 +10422,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10435,14 +10449,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10453,23 +10467,23 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10480,14 +10494,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10508,7 +10522,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
+          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10525,14 +10539,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10553,13 +10567,13 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
+          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10570,14 +10584,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10598,13 +10612,13 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
+          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10615,14 +10629,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10643,13 +10657,13 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
+          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10660,14 +10674,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10683,18 +10697,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
+          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10705,14 +10719,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10728,18 +10742,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
+          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10750,14 +10764,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10773,18 +10787,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
+          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10795,14 +10809,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10818,12 +10832,12 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Estratégia de Desenvolvimento</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
+          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10847,7 +10861,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10863,18 +10877,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
+          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10885,14 +10899,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10901,45 +10915,135 @@
       <c r="P216" s="25" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="n"/>
-      <c r="B217" s="21" t="n"/>
-      <c r="C217" s="21" t="n"/>
+      <c r="A217" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B217" s="21" t="inlineStr">
+        <is>
+          <t>Ciclo de vida do desenvolvimento</t>
+        </is>
+      </c>
+      <c r="C217" s="21" t="inlineStr">
+        <is>
+          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
+        </is>
+      </c>
       <c r="D217" s="21" t="n"/>
-      <c r="E217" s="21" t="n"/>
+      <c r="E217" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G217" s="21" t="n"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
-      <c r="L217" s="25" t="n"/>
+      <c r="L217" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M217" s="25" t="n"/>
       <c r="N217" s="25" t="n"/>
       <c r="O217" s="25" t="n"/>
       <c r="P217" s="25" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="n"/>
-      <c r="B218" s="21" t="n"/>
-      <c r="C218" s="21" t="n"/>
+      <c r="A218" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B218" s="21" t="inlineStr">
+        <is>
+          <t>Estratégia de Desenvolvimento</t>
+        </is>
+      </c>
+      <c r="C218" s="21" t="inlineStr">
+        <is>
+          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
+        </is>
+      </c>
       <c r="D218" s="21" t="n"/>
-      <c r="E218" s="21" t="n"/>
+      <c r="E218" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G218" s="21" t="n"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
-      <c r="L218" s="25" t="n"/>
+      <c r="L218" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M218" s="25" t="n"/>
       <c r="N218" s="25" t="n"/>
       <c r="O218" s="25" t="n"/>
       <c r="P218" s="25" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="n"/>
-      <c r="B219" s="21" t="n"/>
-      <c r="C219" s="21" t="n"/>
+      <c r="A219" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B219" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C219" s="21" t="inlineStr">
+        <is>
+          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
+        </is>
+      </c>
       <c r="D219" s="21" t="n"/>
-      <c r="E219" s="21" t="n"/>
+      <c r="E219" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G219" s="21" t="n"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
-      <c r="L219" s="25" t="n"/>
+      <c r="L219" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M219" s="25" t="n"/>
       <c r="N219" s="25" t="n"/>
       <c r="O219" s="25" t="n"/>
@@ -12261,7 +12365,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F220" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -3511,18 +3511,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Regiões</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Selecione a(s) região(ões) do Azure certa para sua implantação. O Azure é uma plataforma de nuvem de escala global que fornece cobertura global em muitas regiões e geografias. Diferentes regiões do Azure têm diferentes características, modelos de acesso e disponibilidade, custos, capacidade e serviços oferecidos, por isso é importante considerar todos os critérios e requisitos</t>
+          <t>Para a Sovereign Landing Zone, tenha um grupo de gestão "confidencial" e "confidencial online" diretamente sob as "zonas de pouso" MG.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3533,19 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
+          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3566,13 +3561,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Considere uma implantação de várias regiões. Dependendo do tamanho do cliente, locais e presença de usuários, operar em várias regiões pode ser uma escolha comum para fornecer serviços e executar aplicativos mais próximos a eles. O uso de uma implantação de várias regiões também é importante para fornecer recursos de recuperação de desastres geográficos, para eliminar a dependência de uma única capacidade de região e diminuir o risco de uma restrição de capacidade de recursos temporária e localizada</t>
+          <t>Selecione a(s) região(ões) do Azure certa para sua implantação. O Azure é uma plataforma de nuvem de escala global que fornece cobertura global em muitas regiões e geografias. Diferentes regiões do Azure têm diferentes características, modelos de acesso e disponibilidade, custos, capacidade e serviços oferecidos, por isso é importante considerar todos os critérios e requisitos</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3583,7 +3578,7 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3595,7 +3590,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3616,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
+          <t>Considere uma implantação de várias regiões. Dependendo do tamanho do cliente, locais e presença de usuários, operar em várias regiões pode ser uma escolha comum para fornecer serviços e executar aplicativos mais próximos a eles. O uso de uma implantação de várias regiões também é importante para fornecer recursos de recuperação de desastres geográficos, para eliminar a dependência de uma única capacidade de região e diminuir o risco de uma restrição de capacidade de recursos temporária e localizada</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3633,7 +3628,7 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3645,7 +3640,7 @@
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3656,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Organização de Recursos</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Regiões</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Desenvolva um plano para proteger o conteúdo do aplicativo de entrega de seus raios de carga de trabalho usando o Gateway de Aplicativo e o Azure Front door.  Você pode usar a lista de verificação de entrega de aplicativos para obter recomendações.</t>
+          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3683,14 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Execute a entrega de aplicativos dentro das zonas de aterrissagem para aplicativos internos (corp) e externos (online).</t>
+          <t>Desenvolva um plano para proteger o conteúdo do aplicativo de entrega de seus raios de carga de trabalho usando o Gateway de Aplicativo e o Azure Front door.  Você pode usar a lista de verificação de entrega de aplicativos para obter recomendações.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,19 +3728,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
+          <t>Execute a entrega de aplicativos dentro das zonas de aterrissagem para aplicativos internos (corp) e externos (online).</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3778,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3806,12 +3802,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3828,15 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3857,13 +3857,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,19 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3902,18 +3897,18 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
+          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3924,19 +3919,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3957,13 +3952,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também servidores DNS.</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3974,15 +3969,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4003,13 +4002,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
+          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também servidores DNS.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4020,7 +4019,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4028,7 +4027,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4049,13 +4048,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4066,7 +4065,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4074,7 +4073,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4095,7 +4094,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
+          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4112,7 +4111,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -4120,7 +4119,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4141,13 +4140,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
+          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4158,19 +4157,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4191,7 +4186,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4208,19 +4203,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4241,7 +4236,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4258,15 +4253,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4287,7 +4286,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Considere o limite de rotas por tabela de rotas (400).</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4312,7 +4311,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,13 +4332,13 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t>Considere o limite de rotas por tabela de rotas (400).</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4350,7 +4349,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4358,7 +4357,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4374,18 +4373,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4396,19 +4395,15 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4429,14 +4424,10 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="inlineStr">
-        <is>
-          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
-        </is>
-      </c>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4450,7 +4441,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
@@ -4462,7 +4453,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4483,10 +4474,14 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="n"/>
+          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="inlineStr">
+        <is>
+          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
+        </is>
+      </c>
       <c r="E79" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4512,7 +4507,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4533,13 +4528,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
+          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4550,15 +4545,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4579,7 +4578,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
+          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4596,7 +4595,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4604,7 +4603,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4625,13 +4624,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4642,19 +4641,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4675,7 +4670,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4692,7 +4687,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
@@ -4704,7 +4699,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4725,7 +4720,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4742,7 +4737,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
@@ -4754,7 +4749,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4775,7 +4770,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4792,19 +4787,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4825,13 +4820,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4842,19 +4837,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4892,7 +4887,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
@@ -4904,7 +4899,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4925,7 +4920,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4942,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4954,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4975,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4992,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -5004,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5025,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade na rede, especialmente entre o local e o Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5042,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5054,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5075,13 +5070,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5092,15 +5087,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5116,12 +5115,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
+          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5138,19 +5137,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,18 +5161,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Se você estiver usando uma tabela de rotas na GatewaySubnet, verifique se as rotas de gateway são propagadas.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5188,19 +5183,15 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5216,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Se estiver usando a Rota Expressa, seu roteamento local deve ser dinâmico: no caso de uma falha de conexão, ele deve convergir para a conexão restante do circuito. A carga deve ser compartilhada entre ambas as conexões idealmente como ativa/ativa, embora ativa/passiva também seja suportada.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5238,19 +5229,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5271,7 +5258,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5288,19 +5275,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5321,13 +5308,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5338,19 +5325,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5371,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5388,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5421,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5438,15 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5467,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5484,7 +5475,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
@@ -5496,7 +5487,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,12 +5503,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5534,15 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5553,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,7 +5575,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5588,7 +5583,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5604,12 +5599,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5626,19 +5621,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5659,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5676,19 +5671,15 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5709,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5726,19 +5717,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5759,13 +5746,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5776,19 +5763,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5809,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5826,19 +5813,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,13 +5846,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5876,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5896,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5976,15 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6005,7 +5996,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,15 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6051,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6068,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6113,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6121,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
+          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6159,7 +6159,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6167,7 +6167,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Avalie e analise a configuração e a estratégia do tráfego de saída da rede antes da próxima mudança de ruptura. Em 30 de setembro de 2025, o acesso de saída padrão para novas implantações será desativado e apenas as configurações de acesso explícito serão permitidas</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6205,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6213,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6229,12 +6229,12 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,19 +6251,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,18 +6274,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
+          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6301,19 +6296,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6329,18 +6319,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
+          <t>Avalie e analise a configuração e a estratégia do tráfego de saída da rede antes da próxima mudança de ruptura. Em 30 de setembro de 2025, o acesso de saída padrão para novas implantações será desativado e apenas as configurações de acesso explícito serão permitidas</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6351,19 +6341,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6384,13 +6369,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6401,7 +6386,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6413,7 +6398,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6434,7 +6419,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
+          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6456,14 +6441,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6479,18 +6464,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
+          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6501,15 +6486,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6525,18 +6514,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6547,15 +6536,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6571,12 +6564,12 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6593,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6622,13 +6619,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
+          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6639,19 +6636,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6672,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6689,19 +6682,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6722,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6737,17 +6726,17 @@
         </is>
       </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6768,7 +6757,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6785,19 +6774,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6818,7 +6807,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6835,19 +6824,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6863,12 +6852,12 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6883,21 +6872,17 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6913,12 +6898,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6935,14 +6920,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6958,18 +6948,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6980,14 +6970,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7008,7 +7003,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7025,19 +7020,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7058,7 +7053,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7075,14 +7070,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7103,13 +7098,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7120,14 +7115,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7148,7 +7143,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7165,14 +7160,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7210,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7255,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,13 +7283,13 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
+          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7300,14 +7300,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7318,23 +7318,23 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
+          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7345,14 +7345,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7363,17 +7363,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
+          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7390,14 +7390,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,23 +7408,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7435,14 +7435,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7463,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
+          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7487,7 +7487,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7525,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,13 +7553,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7570,14 +7570,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7622,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,14 +7643,10 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D145" s="21" t="inlineStr">
-        <is>
-          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -7664,14 +7660,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7692,13 +7688,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7709,14 +7705,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7737,7 +7733,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7754,19 +7750,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7782,18 +7773,22 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="inlineStr">
+        <is>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7804,14 +7799,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7822,17 +7817,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7849,14 +7844,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,12 +7867,12 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7894,14 +7889,19 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7912,23 +7912,23 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Para a Zona de Desembarque Soberano, a iniciativa política de base da política de soberania é implantada e atribuída no nível correto de MG.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7939,14 +7939,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7957,17 +7957,17 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
+          <t>Para a Zona de Desembarque Soberano, os objetivos de Controle Soberano para o mapeamento de políticas são documentados.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7984,14 +7984,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,17 +8002,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
+          <t>Para a Zona de Desembarque Soberano, está em vigor o processo para CRUD de "Objetivos de Controle Soberano para mapeamento de políticas".</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8027,16 +8027,12 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
-        </is>
-      </c>
+      <c r="H153" s="15" t="n"/>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8047,23 +8043,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8074,14 +8070,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8092,17 +8088,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8119,19 +8115,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8142,17 +8133,17 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8167,12 +8158,16 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,18 +8183,18 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
+          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8210,19 +8205,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8238,12 +8228,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8260,19 +8250,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8288,12 +8273,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8310,19 +8295,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8338,12 +8318,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8360,19 +8340,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8393,7 +8368,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8410,19 +8385,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8443,7 +8418,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8458,21 +8433,12 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H162" s="15" t="n"/>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8493,13 +8459,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8510,14 +8476,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8538,7 +8509,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8555,14 +8526,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8583,7 +8559,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8600,14 +8576,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8628,7 +8609,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8645,14 +8626,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8673,7 +8659,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8690,14 +8676,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8718,7 +8709,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8735,14 +8726,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8763,13 +8759,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8780,14 +8776,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,7 +8804,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8825,14 +8821,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8853,7 +8849,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8870,14 +8866,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8898,7 +8894,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8915,14 +8911,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,12 +8934,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Conformidade operacional</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,14 +8956,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,19 +8979,15 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Conformidade operacional</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="D174" s="21" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
+        </is>
+      </c>
+      <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9009,14 +9001,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9032,12 +9024,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9054,14 +9046,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9077,12 +9069,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9099,14 +9091,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9122,12 +9114,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9144,14 +9136,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9162,23 +9154,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
+          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9189,14 +9181,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9207,23 +9199,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9234,14 +9226,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,20 +9244,24 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9279,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,17 +9293,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9324,14 +9320,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9342,17 +9338,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9369,14 +9365,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9387,23 +9383,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9414,14 +9410,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,23 +9428,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9459,14 +9455,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9477,23 +9473,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9504,14 +9500,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9522,17 +9518,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
+          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9549,14 +9545,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9572,12 +9568,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9594,14 +9590,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9617,12 +9613,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9639,14 +9635,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9667,13 +9663,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9684,14 +9680,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9712,7 +9708,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9729,14 +9725,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,7 +9753,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9781,7 +9777,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,7 +9798,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9819,14 +9815,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9847,7 +9843,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9871,7 +9867,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9892,7 +9888,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9916,7 +9912,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,12 +9928,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9954,14 +9950,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9977,12 +9973,12 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9999,14 +9995,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10022,18 +10018,18 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10044,14 +10040,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10067,18 +10063,18 @@
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10089,14 +10085,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10112,18 +10108,18 @@
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10134,14 +10130,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10157,18 +10153,18 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10179,14 +10175,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10202,12 +10198,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Para Sovereign Landing Zone, use o HSM gerenciado pelo Cofre de Chaves do Azure para armazenar seus segredos e credenciais.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10224,14 +10220,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10252,7 +10248,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10269,14 +10265,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,18 +10288,18 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10314,14 +10310,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10337,12 +10333,12 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10359,14 +10355,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10382,12 +10378,12 @@
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Acesso privilegiado seguro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
+          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10404,14 +10400,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10427,18 +10423,18 @@
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Estrutura de habilitação de serviço</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10449,14 +10445,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10472,18 +10468,18 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Estrutura de habilitação de serviço</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10494,14 +10490,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10512,23 +10508,23 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10539,14 +10535,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10557,23 +10553,23 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10584,14 +10580,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10602,23 +10598,23 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
+          <t>Para a Zona de Pouso Soberano, os logs de transparência são habilitados no locatário do ID do Entra.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10629,14 +10625,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10647,23 +10643,23 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
+          <t>Para a Sovereign Landing Zone, o Customer Lockbox está habilitado no locatário do Entra ID.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10674,14 +10670,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10692,23 +10688,23 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10719,14 +10715,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10737,17 +10733,17 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10764,14 +10760,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10782,23 +10778,23 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Acesso privilegiado seguro</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
+          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10809,14 +10805,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10827,23 +10823,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10854,14 +10850,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10872,23 +10868,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10899,14 +10895,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10922,18 +10918,18 @@
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
+          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10944,14 +10940,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10967,18 +10963,18 @@
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>Estratégia de Desenvolvimento</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
+          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10989,14 +10985,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,18 +11008,18 @@
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
+          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11034,14 +11030,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11050,135 +11046,405 @@
       <c r="P219" s="25" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="n"/>
-      <c r="B220" s="21" t="n"/>
-      <c r="C220" s="21" t="n"/>
+      <c r="A220" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B220" s="21" t="inlineStr">
+        <is>
+          <t>Topologias de equipe de DevOps</t>
+        </is>
+      </c>
+      <c r="C220" s="21" t="inlineStr">
+        <is>
+          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
+        </is>
+      </c>
       <c r="D220" s="21" t="n"/>
-      <c r="E220" s="21" t="n"/>
+      <c r="E220" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G220" s="21" t="n"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
-      <c r="L220" s="25" t="n"/>
+      <c r="L220" s="25" t="inlineStr">
+        <is>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+        </is>
+      </c>
       <c r="M220" s="25" t="n"/>
       <c r="N220" s="25" t="n"/>
       <c r="O220" s="25" t="n"/>
       <c r="P220" s="25" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="n"/>
-      <c r="B221" s="21" t="n"/>
-      <c r="C221" s="21" t="n"/>
+      <c r="A221" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B221" s="21" t="inlineStr">
+        <is>
+          <t>Topologias de equipe de DevOps</t>
+        </is>
+      </c>
+      <c r="C221" s="21" t="inlineStr">
+        <is>
+          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
+        </is>
+      </c>
       <c r="D221" s="21" t="n"/>
-      <c r="E221" s="21" t="n"/>
+      <c r="E221" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G221" s="21" t="n"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
-      <c r="L221" s="25" t="n"/>
+      <c r="L221" s="25" t="inlineStr">
+        <is>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+        </is>
+      </c>
       <c r="M221" s="25" t="n"/>
       <c r="N221" s="25" t="n"/>
       <c r="O221" s="25" t="n"/>
       <c r="P221" s="25" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="n"/>
-      <c r="B222" s="21" t="n"/>
-      <c r="C222" s="21" t="n"/>
+      <c r="A222" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B222" s="21" t="inlineStr">
+        <is>
+          <t>Topologias de equipe de DevOps</t>
+        </is>
+      </c>
+      <c r="C222" s="21" t="inlineStr">
+        <is>
+          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
+        </is>
+      </c>
       <c r="D222" s="21" t="n"/>
-      <c r="E222" s="21" t="n"/>
+      <c r="E222" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G222" s="21" t="n"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
-      <c r="L222" s="25" t="n"/>
+      <c r="L222" s="25" t="inlineStr">
+        <is>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+        </is>
+      </c>
       <c r="M222" s="25" t="n"/>
       <c r="N222" s="25" t="n"/>
       <c r="O222" s="25" t="n"/>
       <c r="P222" s="25" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="n"/>
-      <c r="B223" s="21" t="n"/>
-      <c r="C223" s="21" t="n"/>
+      <c r="A223" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B223" s="21" t="inlineStr">
+        <is>
+          <t>Topologias de equipe de DevOps</t>
+        </is>
+      </c>
+      <c r="C223" s="21" t="inlineStr">
+        <is>
+          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
+        </is>
+      </c>
       <c r="D223" s="21" t="n"/>
-      <c r="E223" s="21" t="n"/>
+      <c r="E223" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G223" s="21" t="n"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+        </is>
+      </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
-      <c r="L223" s="25" t="n"/>
+      <c r="L223" s="25" t="inlineStr">
+        <is>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+        </is>
+      </c>
       <c r="M223" s="25" t="n"/>
       <c r="N223" s="25" t="n"/>
       <c r="O223" s="25" t="n"/>
       <c r="P223" s="25" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="n"/>
-      <c r="B224" s="21" t="n"/>
-      <c r="C224" s="21" t="n"/>
+      <c r="A224" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B224" s="21" t="inlineStr">
+        <is>
+          <t>Ciclo de vida do desenvolvimento</t>
+        </is>
+      </c>
+      <c r="C224" s="21" t="inlineStr">
+        <is>
+          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
+        </is>
+      </c>
       <c r="D224" s="21" t="n"/>
-      <c r="E224" s="21" t="n"/>
+      <c r="E224" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G224" s="21" t="n"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
-      <c r="L224" s="25" t="n"/>
+      <c r="L224" s="25" t="inlineStr">
+        <is>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+        </is>
+      </c>
       <c r="M224" s="25" t="n"/>
       <c r="N224" s="25" t="n"/>
       <c r="O224" s="25" t="n"/>
       <c r="P224" s="25" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="n"/>
-      <c r="B225" s="21" t="n"/>
-      <c r="C225" s="21" t="n"/>
+      <c r="A225" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B225" s="21" t="inlineStr">
+        <is>
+          <t>Ciclo de vida do desenvolvimento</t>
+        </is>
+      </c>
+      <c r="C225" s="21" t="inlineStr">
+        <is>
+          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
+        </is>
+      </c>
       <c r="D225" s="21" t="n"/>
-      <c r="E225" s="21" t="n"/>
+      <c r="E225" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G225" s="21" t="n"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
-      <c r="L225" s="25" t="n"/>
+      <c r="L225" s="25" t="inlineStr">
+        <is>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+        </is>
+      </c>
       <c r="M225" s="25" t="n"/>
       <c r="N225" s="25" t="n"/>
       <c r="O225" s="25" t="n"/>
       <c r="P225" s="25" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="n"/>
-      <c r="B226" s="21" t="n"/>
-      <c r="C226" s="21" t="n"/>
+      <c r="A226" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B226" s="21" t="inlineStr">
+        <is>
+          <t>Ciclo de vida do desenvolvimento</t>
+        </is>
+      </c>
+      <c r="C226" s="21" t="inlineStr">
+        <is>
+          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
+        </is>
+      </c>
       <c r="D226" s="21" t="n"/>
-      <c r="E226" s="21" t="n"/>
+      <c r="E226" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G226" s="21" t="n"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
-      <c r="L226" s="25" t="n"/>
+      <c r="L226" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M226" s="25" t="n"/>
       <c r="N226" s="25" t="n"/>
       <c r="O226" s="25" t="n"/>
       <c r="P226" s="25" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="n"/>
-      <c r="B227" s="21" t="n"/>
-      <c r="C227" s="21" t="n"/>
+      <c r="A227" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B227" s="21" t="inlineStr">
+        <is>
+          <t>Estratégia de Desenvolvimento</t>
+        </is>
+      </c>
+      <c r="C227" s="21" t="inlineStr">
+        <is>
+          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
+        </is>
+      </c>
       <c r="D227" s="21" t="n"/>
-      <c r="E227" s="21" t="n"/>
+      <c r="E227" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G227" s="21" t="n"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
-      <c r="L227" s="25" t="n"/>
+      <c r="L227" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M227" s="25" t="n"/>
       <c r="N227" s="25" t="n"/>
       <c r="O227" s="25" t="n"/>
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="n"/>
-      <c r="B228" s="21" t="n"/>
-      <c r="C228" s="21" t="n"/>
+      <c r="A228" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C228" s="21" t="inlineStr">
+        <is>
+          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
+        </is>
+      </c>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="n"/>
+      <c r="E228" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G228" s="21" t="n"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="n"/>
+      <c r="L228" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12365,7 +12631,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F220" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Se os Serviços de Domínios do Active Directory (AADDS) do Azure estiverem em uso, implante o AADDS na região primária porque esse serviço só pode ser projetado em uma assinatura</t>
+          <t>Ao implantar o Active Directory no Windows Server, use um local com zonas de disponibilidade e implante pelo menos duas VMs nessas zonas. Se não estiver disponível, implante em um Conjunto de Disponibilidade</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2413,7 +2413,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Se o AD no servidor Windows estiver em uso, os recursos no Azure estão usando o controlador de domínio correto?</t>
+          <t>Se os controladores de domínio estiverem sendo usados, verifique se os recursos estão definidos para usar o controlador de domínio correto.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Configure a segmentação de rede de identidade (ADDS) por meio do uso de uma rede virtual e faça peer back para o hub. Fornecendo autenticação dentro da zona de aterrissagem do aplicativo (legado).</t>
+          <t>Configure a segmentação de rede de identidade por meio do uso de uma rede virtual e faça peer back para o hub. Fornecendo autenticação dentro da zona de aterrissagem do aplicativo (legado).</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Se AD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento Indentity, para hospedar controladores de domínio do Active Directory do Windows Server</t>
+          <t>Se os servidores forem usados para serviços de identidade, como controladores de domínio, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento de identidades para hospedar esses serviços</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
+          <t>Se você estiver usando uma tabela de rotas na GatewaySubnet, verifique se as rotas de gateway são propagadas.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5137,7 +5137,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5145,7 +5145,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando uma tabela de rotas na GatewaySubnet, verifique se as rotas de gateway são propagadas.</t>
+          <t>Se estiver usando a Rota Expressa, seu roteamento local deve ser dinâmico: no caso de uma falha de conexão, ele deve convergir para a conexão restante do circuito. A carga deve ser compartilhada entre ambas as conexões idealmente como ativa/ativa, embora ativa/passiva também seja suportada.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5183,7 +5183,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5191,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando a Rota Expressa, seu roteamento local deve ser dinâmico: no caso de uma falha de conexão, ele deve convergir para a conexão restante do circuito. A carga deve ser compartilhada entre ambas as conexões idealmente como ativa/ativa, embora ativa/passiva também seja suportada.</t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,15 +5229,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,13 +5262,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,7 +5291,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,13 +5312,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5337,7 +5341,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,7 +5362,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5375,19 +5379,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,13 +5412,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5425,7 +5429,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5437,7 +5441,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,7 +5462,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5475,19 +5479,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5512,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5529,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,15 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5599,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5621,19 +5625,15 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5671,7 +5671,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5679,7 +5679,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,15 +5717,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5746,13 +5750,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5763,7 +5767,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5775,7 +5779,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5796,13 +5800,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,7 +5829,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5846,13 +5850,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5863,19 +5867,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5896,13 +5900,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5913,7 +5917,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5925,7 +5929,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5946,13 +5950,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5968,14 +5972,14 @@
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6000,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,19 +6017,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6046,7 +6050,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6063,19 +6067,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6095,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
+          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6112,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6120,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6141,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6167,7 +6166,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6187,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6204,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6212,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6234,7 +6233,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
+          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,14 +6250,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,7 +6278,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
+          <t>Avalie e analise a configuração e a estratégia do tráfego de saída da rede antes da próxima mudança de ruptura. Em 30 de setembro de 2025, o acesso de saída padrão para novas implantações será desativado e apenas as configurações de acesso explícito serão permitidas</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6296,14 +6295,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6319,12 +6318,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Avalie e analise a configuração e a estratégia do tráfego de saída da rede antes da próxima mudança de ruptura. Em 30 de setembro de 2025, o acesso de saída padrão para novas implantações será desativado e apenas as configurações de acesso explícito serão permitidas</t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6341,14 +6340,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6369,13 +6373,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
+          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6386,19 +6390,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6419,7 +6423,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
+          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6441,14 +6445,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6469,7 +6473,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6491,14 +6495,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6519,7 +6523,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6548,7 +6552,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6564,18 +6568,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
+          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,19 +6590,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
+          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,7 +6636,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="I123" s="15" t="n"/>
@@ -6644,7 +6644,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
+          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6682,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6690,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6728,15 +6728,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6757,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6774,19 +6778,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6807,7 +6811,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6822,11 +6826,7 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="I127" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6836,7 +6836,7 @@
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6872,7 +6872,11 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6882,7 +6886,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6903,7 +6907,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6925,14 +6929,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6948,12 +6952,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6970,19 +6974,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7003,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
+          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7020,19 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7053,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7077,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7098,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7116,13 +7115,18 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7143,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7160,19 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7209,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7237,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7254,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,7 +7282,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
+          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7300,14 +7299,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7328,7 +7327,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
+          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7345,14 +7344,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7373,13 +7372,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
+          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7390,14 +7389,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,17 +7407,17 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
+          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7435,14 +7434,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7462,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7480,14 +7479,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7507,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7524,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,7 +7552,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7577,7 +7576,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7597,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7621,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,13 +7642,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7660,14 +7659,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7688,13 +7687,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7705,14 +7704,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7733,10 +7732,14 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="inlineStr">
+        <is>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E147" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -7750,14 +7753,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7778,14 +7781,10 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="inlineStr">
-        <is>
-          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -7799,14 +7798,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7827,7 +7826,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7844,14 +7843,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
+          <t>Para a Zona de Desembarque Soberano, a iniciativa política de base da política de soberania é implantada e atribuída no nível correto de MG.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7889,19 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7922,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Para a Zona de Desembarque Soberano, a iniciativa política de base da política de soberania é implantada e atribuída no nível correto de MG.</t>
+          <t>Para a Zona de Desembarque Soberano, os objetivos de Controle Soberano para o mapeamento de políticas são documentados.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7939,14 +7938,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7967,7 +7966,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Para a Zona de Desembarque Soberano, os objetivos de Controle Soberano para o mapeamento de políticas são documentados.</t>
+          <t>Para a Zona de Desembarque Soberano, está em vigor o processo para CRUD de "Objetivos de Controle Soberano para mapeamento de políticas".</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7982,16 +7981,12 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
-        </is>
-      </c>
+      <c r="H152" s="15" t="n"/>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8007,18 +8002,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Para a Zona de Desembarque Soberano, está em vigor o processo para CRUD de "Objetivos de Controle Soberano para mapeamento de políticas".</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8027,12 +8022,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8043,23 +8042,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8070,14 +8069,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8088,17 +8087,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
+          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8115,14 +8114,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8133,23 +8132,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
+          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8160,14 +8159,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,13 +8187,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8205,14 +8204,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8228,12 +8227,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
+          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8250,14 +8249,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8278,7 +8277,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8295,14 +8294,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8318,12 +8317,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8340,14 +8339,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8368,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8383,21 +8387,12 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H161" s="15" t="n"/>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8418,7 +8413,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8433,12 +8428,21 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="n"/>
+      <c r="H162" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8459,7 +8463,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8476,19 +8480,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8509,7 +8513,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8526,19 +8530,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8559,7 +8563,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8576,19 +8580,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8609,7 +8613,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8626,19 +8630,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8663,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,19 +8680,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8709,13 +8713,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8726,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8759,13 +8758,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8776,14 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8804,7 +8803,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8821,14 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8849,7 +8848,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8866,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8894,7 +8893,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8911,14 +8910,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8939,7 +8938,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8956,14 +8955,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8984,7 +8983,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9001,14 +9000,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9029,7 +9028,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9046,14 +9045,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9074,7 +9073,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9091,14 +9090,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9119,7 +9118,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9136,14 +9135,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9159,12 +9158,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9181,14 +9180,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9209,10 +9208,14 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9226,14 +9229,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9249,19 +9252,15 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Conformidade operacional</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9275,14 +9274,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,7 +9302,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9320,14 +9319,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9348,7 +9347,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9365,14 +9364,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9383,23 +9382,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
+          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9410,14 +9409,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9438,7 +9437,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
+          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9455,14 +9454,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9483,13 +9482,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
+          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9500,14 +9499,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,17 +9517,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9545,14 +9544,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9573,7 +9572,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9590,14 +9589,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,18 +9612,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9635,14 +9634,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9663,13 +9662,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9680,14 +9679,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9708,7 +9707,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9725,14 +9724,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9753,7 +9752,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9777,7 +9776,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9798,7 +9797,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9822,7 +9821,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9843,7 +9842,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9867,7 +9866,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9888,7 +9887,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9912,7 +9911,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9933,7 +9932,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9950,14 +9949,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9978,7 +9977,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9995,14 +9994,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10023,7 +10022,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10040,14 +10039,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10068,7 +10067,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10085,14 +10084,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10113,7 +10112,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10137,7 +10136,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10158,7 +10157,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>Para Sovereign Landing Zone, use o HSM gerenciado pelo Cofre de Chaves do Azure para armazenar seus segredos e credenciais.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10175,14 +10174,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,12 +10197,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Para Sovereign Landing Zone, use o HSM gerenciado pelo Cofre de Chaves do Azure para armazenar seus segredos e credenciais.</t>
+          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10220,14 +10219,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10248,7 +10247,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10265,14 +10264,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10293,13 +10292,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10310,14 +10309,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10338,7 +10337,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
+          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10355,14 +10354,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10383,7 +10382,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
+          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10400,14 +10399,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,7 +10427,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
+          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10445,14 +10444,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10473,13 +10472,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10490,14 +10489,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10535,14 +10534,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10563,7 +10562,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Para a Zona de Pouso Soberano, os logs de transparência são habilitados no locatário do ID do Entra.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10580,14 +10579,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10608,7 +10607,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Para a Zona de Pouso Soberano, os logs de transparência são habilitados no locatário do ID do Entra.</t>
+          <t>Para a Sovereign Landing Zone, o Customer Lockbox está habilitado no locatário do Entra ID.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10625,14 +10624,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10648,18 +10647,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Para a Sovereign Landing Zone, o Customer Lockbox está habilitado no locatário do Entra ID.</t>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10670,14 +10669,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10698,7 +10697,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10715,14 +10714,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10738,12 +10737,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Acesso privilegiado seguro</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10760,14 +10759,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10783,18 +10782,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Acesso privilegiado seguro</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10805,14 +10804,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10833,7 +10832,7 @@
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10857,7 +10856,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10868,23 +10867,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de Plataforma e DevOps</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Estrutura de habilitação de serviço</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10895,14 +10894,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10923,13 +10922,13 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
+          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10940,14 +10939,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10968,7 +10967,7 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
+          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
@@ -10992,7 +10991,7 @@
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11013,13 +11012,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
+          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11030,14 +11029,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11058,13 +11057,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
+          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11075,14 +11074,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11103,13 +11102,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
+          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11127,7 +11126,7 @@
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11148,13 +11147,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
+          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11165,14 +11164,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11188,18 +11187,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
+          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11210,14 +11209,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11238,13 +11237,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
+          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11255,14 +11254,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11283,13 +11282,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
+          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11307,7 +11306,7 @@
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11323,18 +11322,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Estratégia de Desenvolvimento</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
+          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11345,14 +11344,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11368,12 +11367,12 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>Estratégia de Desenvolvimento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
+          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11390,14 +11389,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11406,45 +11405,15 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12631,7 +12600,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Se o AADDS estiver em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
+          <t>Se os Serviços de Domínio Entra estiverem em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Use gateways VPN com redundância de zona para conectar filiais ou locais remotos ao Azure (quando disponível).</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4870,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
+          <t>Use dispositivos VPN redundantes no local (ativo/ativo ou ativo/passivo).</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4887,19 +4887,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4920,13 +4920,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4937,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4949,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4987,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -4999,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade na rede, especialmente entre o local e o Azure.</t>
+          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5037,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5049,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade na rede, especialmente entre o local e o Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5087,7 +5087,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
@@ -5099,7 +5099,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,13 +5120,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando uma tabela de rotas na GatewaySubnet, verifique se as rotas de gateway são propagadas.</t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5137,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,13 +5170,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando a Rota Expressa, seu roteamento local deve ser dinâmico: no caso de uma falha de conexão, ele deve convergir para a conexão restante do circuito. A carga deve ser compartilhada entre ambas as conexões idealmente como ativa/ativa, embora ativa/passiva também seja suportada.</t>
+          <t>Use VPN site a site como failover da Rota Expressa, especialmente se estiver usando apenas um único circuito da Rota Expressa.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5183,7 +5187,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5195,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5211,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
+          <t>Se você estiver usando uma tabela de rotas na GatewaySubnet, verifique se as rotas de gateway são propagadas.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,19 +5233,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5257,18 +5257,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Se estiver usando a Rota Expressa, seu roteamento local deve ser dinâmico: no caso de uma falha de conexão, ele deve convergir para a conexão restante do circuito. A carga deve ser compartilhada entre ambas as conexões idealmente como ativa/ativa, embora ativa/passiva também seja suportada.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5279,19 +5279,15 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5312,7 +5308,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5341,7 +5337,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5362,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5379,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5412,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5429,19 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5462,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,19 +5475,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,13 +5508,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5532,12 +5528,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I100" s="15" t="n"/>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5603,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5625,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I102" s="15" t="n"/>
@@ -5633,7 +5633,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5649,18 +5649,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5671,15 +5671,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5704,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,19 +5721,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5767,19 +5767,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5800,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5817,7 +5813,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5829,7 +5825,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5850,7 +5846,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5867,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5900,7 +5896,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5917,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5967,19 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,13 +5996,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6017,19 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6050,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6067,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6112,15 +6113,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6141,7 +6146,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet em protocolos sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6158,7 +6163,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6166,7 +6171,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6187,7 +6192,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
+          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6204,7 +6209,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6212,7 +6217,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6233,7 +6238,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6250,14 +6255,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6278,7 +6283,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Avalie e analise a configuração e a estratégia do tráfego de saída da rede antes da próxima mudança de ruptura. Em 30 de setembro de 2025, o acesso de saída padrão para novas implantações será desativado e apenas as configurações de acesso explícito serão permitidas</t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6295,14 +6300,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6318,12 +6323,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
+          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6340,19 +6345,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6368,18 +6368,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
+          <t>Avalie e analise a configuração e a estratégia do tráfego de saída da rede antes da próxima mudança de ruptura. Em 30 de setembro de 2025, o acesso de saída padrão para novas implantações será desativado e apenas as configurações de acesso explícito serão permitidas</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6390,19 +6390,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,13 +6419,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6440,19 +6436,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,7 +6469,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6495,14 +6491,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,7 +6519,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
+          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6545,14 +6541,14 @@
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6568,18 +6564,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6590,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6614,18 +6614,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
+          <t>Filtre o tráfego de saída para os serviços de PaaS do Azure usando FQDNs em vez de endereços IP no Firewall do Azure ou em um NVA para impedir a exfiltração de dados. Se estiver usando o Private Link, você poderá bloquear todos os FQDNs, caso contrário, permita apenas os serviços de PaaS necessários.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6636,15 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6669,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6686,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6694,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,13 +6715,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
+          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6728,19 +6732,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6778,19 +6778,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6811,7 +6806,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6826,17 +6821,21 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6856,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6874,7 +6873,7 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6886,7 +6885,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6907,7 +6906,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6922,21 +6921,17 @@
         </is>
       </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6952,12 +6947,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6974,19 +6969,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7002,12 +6997,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Habilite os Logs de Fluxo de Rede Virtual e alimente-os na Análise de Tráfego para obter insights sobre os fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7024,14 +7019,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7052,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7069,14 +7069,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7097,7 +7102,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
+          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7115,18 +7120,13 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,13 +7147,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,14 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7209,14 +7209,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7237,7 +7242,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7254,14 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7282,7 +7287,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7299,14 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7327,7 +7332,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
+          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7344,14 +7349,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,13 +7377,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
+          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7389,14 +7394,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7407,23 +7412,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
+          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7434,14 +7439,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7452,23 +7457,23 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
+          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7479,14 +7484,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7507,13 +7512,13 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+          <t>Aproveite a Política do Azure estrategicamente, defina controles para seu ambiente, usando Iniciativas de Política para agrupar políticas relacionadas.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7531,7 +7536,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7552,7 +7557,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política 'anexar' para impor o uso por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7569,14 +7574,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7597,7 +7602,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7621,7 +7626,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7642,13 +7647,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz intermediário para que possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7659,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7687,7 +7692,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7711,7 +7716,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7732,17 +7737,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="inlineStr">
-        <is>
-          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7753,14 +7754,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7781,7 +7782,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7805,7 +7806,7 @@
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7826,10 +7827,14 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
-        </is>
-      </c>
-      <c r="D149" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D149" s="21" t="inlineStr">
+        <is>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E149" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -7843,19 +7848,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Para a Zona de Desembarque Soberano, a iniciativa política de base da política de soberania é implantada e atribuída no nível correto de MG.</t>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7893,14 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Para a Zona de Desembarque Soberano, os objetivos de Controle Soberano para o mapeamento de políticas são documentados.</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7938,14 +7938,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7966,7 +7971,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Para a Zona de Desembarque Soberano, está em vigor o processo para CRUD de "Objetivos de Controle Soberano para mapeamento de políticas".</t>
+          <t>Para a Zona de Desembarque Soberano, a iniciativa política de base da política de soberania é implantada e atribuída no nível correto de MG.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7981,12 +7986,16 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,18 +8011,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Otimize seu investimento em nuvem</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Para a Zona de Desembarque Soberano, os objetivos de Controle Soberano para o mapeamento de políticas são documentados.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8024,14 +8033,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8042,17 +8051,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
+          <t>Para a Zona de Desembarque Soberano, está em vigor o processo para CRUD de "Objetivos de Controle Soberano para mapeamento de políticas".</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8067,16 +8076,12 @@
         </is>
       </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
-        </is>
-      </c>
+      <c r="H154" s="15" t="n"/>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8097,13 +8102,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8114,14 +8119,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8132,23 +8137,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Aproveite os conjuntos de Dimensionamento de Máquina Virtual do Azure para expandir e reduzir com base na carga.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8159,14 +8164,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8177,17 +8182,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Otimize seu investimento em nuvem</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
+          <t>Configure alertas de orçamento 'Real' e 'Previsto'.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8204,14 +8209,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8227,18 +8232,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
+          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8249,14 +8254,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8272,12 +8277,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
+          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8294,14 +8299,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8317,12 +8322,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8344,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,12 +8367,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8387,12 +8387,16 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="n"/>
+      <c r="H161" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8413,7 +8417,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8430,19 +8434,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8463,7 +8467,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Certifique-se de que a zona de aterragem está documentada.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8478,21 +8482,12 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="H163" s="15" t="n"/>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8513,7 +8508,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t>Use os Logs do Azure Monitor quando os requisitos de retenção de log excederem dois anos. Atualmente, você pode manter os dados arquivados por até 7 anos.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8530,19 +8525,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8563,7 +8558,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8580,19 +8575,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,7 +8608,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8630,19 +8625,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8663,7 +8658,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8680,19 +8675,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8713,13 +8708,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8730,14 +8725,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8803,13 +8808,13 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8848,7 +8853,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8865,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8893,7 +8898,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8910,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,7 +8943,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8955,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,7 +8988,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9000,14 +9005,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,7 +9033,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9045,14 +9050,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,7 +9078,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9090,14 +9095,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,7 +9123,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9135,14 +9140,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9158,12 +9163,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Conformidade operacional</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9180,14 +9185,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9203,19 +9208,15 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Conformidade operacional</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9229,14 +9230,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,12 +9253,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9274,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,15 +9298,19 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Proteja e recupere</t>
+          <t>Conformidade operacional</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9319,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9347,7 +9352,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9364,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9382,23 +9387,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9409,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9427,23 +9432,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gestão </t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Tolerância a falhas</t>
+          <t>Proteja e recupere</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
+          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9454,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,13 +9487,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
+          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9499,14 +9504,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9517,23 +9522,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9544,14 +9549,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9562,17 +9567,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t xml:space="preserve">Gestão </t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Tolerância a falhas</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9589,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9612,18 +9617,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9634,14 +9639,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9657,12 +9662,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Criptografia e chaves</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9679,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,13 +9712,13 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9724,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9752,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9769,14 +9774,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9797,7 +9802,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9821,7 +9826,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9842,7 +9847,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Siga um modelo de privilégios mínimos, limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9866,7 +9871,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9887,7 +9892,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9911,7 +9916,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,7 +9937,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9949,14 +9954,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9977,7 +9982,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10001,7 +10006,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10022,7 +10027,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10039,14 +10044,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10067,7 +10072,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10091,7 +10096,7 @@
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10112,7 +10117,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10129,14 +10134,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10157,7 +10162,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Para Sovereign Landing Zone, use o HSM gerenciado pelo Cofre de Chaves do Azure para armazenar seus segredos e credenciais.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10174,14 +10179,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10197,12 +10202,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10219,14 +10224,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10242,12 +10247,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Criptografia e chaves</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Para Sovereign Landing Zone, use o HSM gerenciado pelo Cofre de Chaves do Azure para armazenar seus segredos e credenciais.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10264,14 +10269,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,13 +10297,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
+          <t>Use os recursos de relatório do Microsoft Entra ID para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10309,14 +10314,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10337,13 +10342,13 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10354,14 +10359,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10382,7 +10387,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
+          <t>Habilite o Defender Cloud Security Posture Management para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10399,14 +10404,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10427,7 +10432,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
+          <t>Habilite um Plano de Proteção de Carga de Trabalho do Defender Cloud para Servidores em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10444,14 +10449,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10472,13 +10477,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Habilite os Planos de Proteção de Carga de Trabalho do Defender Cloud para Recursos do Azure em todas as assinaturas.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10489,14 +10494,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10517,13 +10522,13 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Habilite o Endpoint Protection em servidores IaaS.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10534,14 +10539,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10562,7 +10567,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Para a Zona de Pouso Soberano, os logs de transparência são habilitados no locatário do ID do Entra.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10579,14 +10584,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10607,7 +10612,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Para a Sovereign Landing Zone, o Customer Lockbox está habilitado no locatário do Entra ID.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10624,14 +10629,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10647,18 +10652,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Para a Zona de Pouso Soberano, os logs de transparência são habilitados no locatário do ID do Entra.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10669,14 +10674,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10692,18 +10697,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+          <t>Para a Sovereign Landing Zone, o Customer Lockbox está habilitado no locatário do Entra ID.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10714,14 +10719,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10737,12 +10742,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Acesso privilegiado seguro</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10759,14 +10764,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10782,18 +10787,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Estrutura de habilitação de serviço</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10804,14 +10809,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10827,18 +10832,18 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Estrutura de habilitação de serviço</t>
+          <t>Acesso privilegiado seguro</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Separe contas de administrador privilegiadas para tarefas administrativas do Azure.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10849,14 +10854,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10867,23 +10872,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10894,14 +10899,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10912,23 +10917,23 @@
     <row r="217">
       <c r="A217" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataforma e DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>Topologias de equipe de DevOps</t>
+          <t>Estrutura de habilitação de serviço</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10939,14 +10944,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10967,13 +10972,13 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
+          <t>Verifique se você tem uma equipe de plataforma de DevOps multifuncional para criar, gerenciar e manter sua arquitetura de zona de aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10984,14 +10989,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,13 +11017,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
+          <t>Objetivo de definir funções para a equipe da Plataforma de Zona de Aterrissagem do Azure.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11029,14 +11034,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11057,13 +11062,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
+          <t>Objetivo de definir funções para que as equipes de carga de trabalho de aplicativos sejam autossuficientes e não exijam suporte da equipe da plataforma DevOps. Consiga isso por meio do uso da função RBAC personalizada.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11074,14 +11079,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11102,7 +11107,7 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
+          <t>Use um pipeline de CI/CD para implantar artefatos IaC e garantir a qualidade de sua implantação e ambientes do Azure.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11119,14 +11124,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11147,13 +11152,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
+          <t>Inclua testes de unidade para IaC e código de aplicativo como parte do processo de compilação.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11164,14 +11169,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11187,12 +11192,12 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
+          <t>Use segredos do Cofre de Chaves para evitar a codificação de informações confidenciais, como credenciais (máquinas virtuais, senhas de usuário), certificados ou chaves.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
@@ -11209,14 +11214,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11232,12 +11237,12 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida do desenvolvimento</t>
+          <t>Topologias de equipe de DevOps</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
+          <t>Implemente a automação para File &gt; New &gt; Landing Zone para aplicativos e cargas de trabalho.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11254,14 +11259,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11282,13 +11287,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
+          <t>Garantir que um sistema de controle de versão seja utilizado para o código-fonte das aplicações e IaC desenvolvido. A Microsoft recomenda o Git.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11299,14 +11304,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11322,18 +11327,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>Estratégia de Desenvolvimento</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
+          <t>Siga uma estratégia de ramificação para permitir que as equipes colaborem melhor e gerenciem com eficiência o controle de versão do IaC e do código do aplicativo. Revise opções como o Github Flow.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11344,14 +11349,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11367,18 +11372,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Ciclo de vida do desenvolvimento</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
+          <t>Adote uma estratégia de solicitação pull para ajudar a manter o controle das alterações de código mescladas em ramificações.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11389,14 +11394,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11405,30 +11410,90 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="n"/>
-      <c r="B228" s="21" t="n"/>
-      <c r="C228" s="21" t="n"/>
+      <c r="A228" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>Estratégia de Desenvolvimento</t>
+        </is>
+      </c>
+      <c r="C228" s="21" t="inlineStr">
+        <is>
+          <t>Aproveite a Infraestrutura Declarativa como Ferramentas de Código, como o Azure Bicep, Modelos ARM ou Terraform para criar e manter sua arquitetura de Zona de Aterrissagem do Azure. Tanto do ponto de vista da carga de trabalho da plataforma quanto do aplicativo.</t>
+        </is>
+      </c>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="n"/>
+      <c r="E228" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G228" s="21" t="n"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="n"/>
+      <c r="L228" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
       <c r="P228" s="25" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="n"/>
-      <c r="B229" s="21" t="n"/>
-      <c r="C229" s="21" t="n"/>
+      <c r="A229" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataforma e DevOps</t>
+        </is>
+      </c>
+      <c r="B229" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C229" s="21" t="inlineStr">
+        <is>
+          <t>Integre a segurança ao processo já combinado de desenvolvimento e operações em DevOps para mitigar riscos no processo de inovação.</t>
+        </is>
+      </c>
       <c r="D229" s="21" t="n"/>
-      <c r="E229" s="21" t="n"/>
+      <c r="E229" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G229" s="21" t="n"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
-      <c r="L229" s="25" t="n"/>
+      <c r="L229" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M229" s="25" t="n"/>
       <c r="N229" s="25" t="n"/>
       <c r="O229" s="25" t="n"/>
@@ -12600,7 +12665,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F230" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.pt.xlsx
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Fazer uso do Plano do Azure para reduzir custos para cargas de trabalho que não são de produção</t>
+          <t>Utilizar o Plano do Azure para reduzir os custos de cargas de trabalho que não são de produção</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade/recuperação de desastres</t>
+          <t>Ao implantar um Microsoft Entra Connect, aproveite um servidor de preparo para alta disponibilidade / recuperação de desastres</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Considere usar funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
+          <t>Use as funções RBAC personalizadas do Azure para as seguintes funções-chave para fornecer acesso refinado em sua ALZ: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo. Alinhe essas funções às equipes e responsabilidades dentro da sua empresa.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Microsoft Entra ID Application Proxy como uma VPN ou substituição de proxy reverso para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
+          <t>Quando necessário, use o Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o RBAC do Azure para gerenciar o acesso do plano de dados aos recursos, se possível. E.G - Operações de dados no Cofre de Chaves, Conta de Armazenamento e Serviços de Banco de Dados. </t>
+          <t xml:space="preserve">Use o RBAC do Azure para gerenciar o acesso do plano de dados aos recursos, se possível. Ex.: - Operações de dados no Cofre de Chaves, Conta de Armazenamento e Serviços de Banco de Dados. </t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Considere uma implantação de várias regiões. Dependendo do tamanho do cliente, locais e presença de usuários, operar em várias regiões pode ser uma escolha comum para fornecer serviços e executar aplicativos mais próximos a eles. O uso de uma implantação de várias regiões também é importante para fornecer recursos de recuperação de desastres geográficos, para eliminar a dependência de uma única capacidade de região e diminuir o risco de uma restrição de capacidade de recursos temporária e localizada</t>
+          <t>Considere uma implantação de várias regiões. Dependendo do tamanho do cliente, locais e presença de usuários, operar em várias regiões pode ser uma escolha comum para fornecer serviços e executar aplicativos mais próximos a eles. O uso de uma implantação de várias regiões também é importante para fornecer recursos de recuperação de desastres geográficos, eliminar a dependência de uma capacidade de uma única região e diminuir o risco de uma restrição de capacidade de recursos temporária e localizada</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
+          <t>Quando você estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
+          <t>Aproveite um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Avalie e analise a configuração e a estratégia do tráfego de saída da rede antes da próxima mudança de ruptura. Em 30 de setembro de 2025, o acesso de saída padrão para novas implantações será desativado e apenas as con